--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-12.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="455">
   <si>
     <t>League</t>
   </si>
@@ -974,6 +974,411 @@
   </si>
   <si>
     <t>America de Cali S.A</t>
+  </si>
+  <si>
+    <t>33173986</t>
+  </si>
+  <si>
+    <t>33183385</t>
+  </si>
+  <si>
+    <t>33179196</t>
+  </si>
+  <si>
+    <t>33170686</t>
+  </si>
+  <si>
+    <t>33171818</t>
+  </si>
+  <si>
+    <t>33155647</t>
+  </si>
+  <si>
+    <t>33169537</t>
+  </si>
+  <si>
+    <t>33169545</t>
+  </si>
+  <si>
+    <t>33173988</t>
+  </si>
+  <si>
+    <t>33169542</t>
+  </si>
+  <si>
+    <t>33169539</t>
+  </si>
+  <si>
+    <t>33169544</t>
+  </si>
+  <si>
+    <t>33171758</t>
+  </si>
+  <si>
+    <t>33169546</t>
+  </si>
+  <si>
+    <t>33171686</t>
+  </si>
+  <si>
+    <t>33118750</t>
+  </si>
+  <si>
+    <t>33169541</t>
+  </si>
+  <si>
+    <t>33155649</t>
+  </si>
+  <si>
+    <t>33172063</t>
+  </si>
+  <si>
+    <t>33177119</t>
+  </si>
+  <si>
+    <t>33181831</t>
+  </si>
+  <si>
+    <t>33185054</t>
+  </si>
+  <si>
+    <t>33172288</t>
+  </si>
+  <si>
+    <t>33172442</t>
+  </si>
+  <si>
+    <t>33181852</t>
+  </si>
+  <si>
+    <t>33155438</t>
+  </si>
+  <si>
+    <t>33172613</t>
+  </si>
+  <si>
+    <t>1.227289669</t>
+  </si>
+  <si>
+    <t>1.227444681</t>
+  </si>
+  <si>
+    <t>1.227384732</t>
+  </si>
+  <si>
+    <t>1.227218098</t>
+  </si>
+  <si>
+    <t>1.227244514</t>
+  </si>
+  <si>
+    <t>1.226955764</t>
+  </si>
+  <si>
+    <t>1.227187615</t>
+  </si>
+  <si>
+    <t>1.227187255</t>
+  </si>
+  <si>
+    <t>1.227289569</t>
+  </si>
+  <si>
+    <t>1.227187435</t>
+  </si>
+  <si>
+    <t>1.227187525</t>
+  </si>
+  <si>
+    <t>1.227187345</t>
+  </si>
+  <si>
+    <t>1.227242516</t>
+  </si>
+  <si>
+    <t>1.227187165</t>
+  </si>
+  <si>
+    <t>1.227240092</t>
+  </si>
+  <si>
+    <t>1.226329850</t>
+  </si>
+  <si>
+    <t>1.227188448</t>
+  </si>
+  <si>
+    <t>1.226954914</t>
+  </si>
+  <si>
+    <t>1.227250813</t>
+  </si>
+  <si>
+    <t>1.227350126</t>
+  </si>
+  <si>
+    <t>1.227424694</t>
+  </si>
+  <si>
+    <t>1.227470106</t>
+  </si>
+  <si>
+    <t>1.227252855</t>
+  </si>
+  <si>
+    <t>1.227259269</t>
+  </si>
+  <si>
+    <t>1.227424804</t>
+  </si>
+  <si>
+    <t>1.226946343</t>
+  </si>
+  <si>
+    <t>1.227264335</t>
+  </si>
+  <si>
+    <t>1.227289714</t>
+  </si>
+  <si>
+    <t>1.227444727</t>
+  </si>
+  <si>
+    <t>1.227384777</t>
+  </si>
+  <si>
+    <t>1.227218143</t>
+  </si>
+  <si>
+    <t>1.227244559</t>
+  </si>
+  <si>
+    <t>1.226955748</t>
+  </si>
+  <si>
+    <t>1.227187660</t>
+  </si>
+  <si>
+    <t>1.227187300</t>
+  </si>
+  <si>
+    <t>1.227289614</t>
+  </si>
+  <si>
+    <t>1.227187480</t>
+  </si>
+  <si>
+    <t>1.227187570</t>
+  </si>
+  <si>
+    <t>1.227187390</t>
+  </si>
+  <si>
+    <t>1.227242526</t>
+  </si>
+  <si>
+    <t>1.227187210</t>
+  </si>
+  <si>
+    <t>1.227240137</t>
+  </si>
+  <si>
+    <t>1.226329853</t>
+  </si>
+  <si>
+    <t>1.227188458</t>
+  </si>
+  <si>
+    <t>1.226954898</t>
+  </si>
+  <si>
+    <t>1.227250823</t>
+  </si>
+  <si>
+    <t>1.227350171</t>
+  </si>
+  <si>
+    <t>1.227424739</t>
+  </si>
+  <si>
+    <t>1.227470151</t>
+  </si>
+  <si>
+    <t>1.227252900</t>
+  </si>
+  <si>
+    <t>1.227259314</t>
+  </si>
+  <si>
+    <t>1.227424849</t>
+  </si>
+  <si>
+    <t>1.226946388</t>
+  </si>
+  <si>
+    <t>1.227264380</t>
+  </si>
+  <si>
+    <t>1.227289753</t>
+  </si>
+  <si>
+    <t>1.227444766</t>
+  </si>
+  <si>
+    <t>1.227384816</t>
+  </si>
+  <si>
+    <t>1.227218182</t>
+  </si>
+  <si>
+    <t>1.227244598</t>
+  </si>
+  <si>
+    <t>1.226955763</t>
+  </si>
+  <si>
+    <t>1.227187699</t>
+  </si>
+  <si>
+    <t>1.227187339</t>
+  </si>
+  <si>
+    <t>1.227289653</t>
+  </si>
+  <si>
+    <t>1.227187519</t>
+  </si>
+  <si>
+    <t>1.227187609</t>
+  </si>
+  <si>
+    <t>1.227187429</t>
+  </si>
+  <si>
+    <t>1.227242515</t>
+  </si>
+  <si>
+    <t>1.227187249</t>
+  </si>
+  <si>
+    <t>1.227240176</t>
+  </si>
+  <si>
+    <t>1.226329898</t>
+  </si>
+  <si>
+    <t>1.227188447</t>
+  </si>
+  <si>
+    <t>1.226954913</t>
+  </si>
+  <si>
+    <t>1.227250812</t>
+  </si>
+  <si>
+    <t>1.227350210</t>
+  </si>
+  <si>
+    <t>1.227424778</t>
+  </si>
+  <si>
+    <t>1.227470190</t>
+  </si>
+  <si>
+    <t>1.227252939</t>
+  </si>
+  <si>
+    <t>1.227259353</t>
+  </si>
+  <si>
+    <t>1.227424888</t>
+  </si>
+  <si>
+    <t>1.226946427</t>
+  </si>
+  <si>
+    <t>1.227264419</t>
+  </si>
+  <si>
+    <t>1.227289678</t>
+  </si>
+  <si>
+    <t>1.227444690</t>
+  </si>
+  <si>
+    <t>1.227384741</t>
+  </si>
+  <si>
+    <t>1.227218107</t>
+  </si>
+  <si>
+    <t>1.227244523</t>
+  </si>
+  <si>
+    <t>1.226955773</t>
+  </si>
+  <si>
+    <t>1.227187624</t>
+  </si>
+  <si>
+    <t>1.227187264</t>
+  </si>
+  <si>
+    <t>1.227289578</t>
+  </si>
+  <si>
+    <t>1.227187444</t>
+  </si>
+  <si>
+    <t>1.227187534</t>
+  </si>
+  <si>
+    <t>1.227187354</t>
+  </si>
+  <si>
+    <t>1.227242525</t>
+  </si>
+  <si>
+    <t>1.227187174</t>
+  </si>
+  <si>
+    <t>1.227240101</t>
+  </si>
+  <si>
+    <t>1.226329902</t>
+  </si>
+  <si>
+    <t>1.227188457</t>
+  </si>
+  <si>
+    <t>1.226954923</t>
+  </si>
+  <si>
+    <t>1.227250822</t>
+  </si>
+  <si>
+    <t>1.227350135</t>
+  </si>
+  <si>
+    <t>1.227424703</t>
+  </si>
+  <si>
+    <t>1.227470115</t>
+  </si>
+  <si>
+    <t>1.227252864</t>
+  </si>
+  <si>
+    <t>1.227259278</t>
+  </si>
+  <si>
+    <t>1.227424813</t>
+  </si>
+  <si>
+    <t>1.226946352</t>
+  </si>
+  <si>
+    <t>1.227264344</t>
   </si>
 </sst>
 </file>
@@ -13574,28 +13979,28 @@
         <v>3.6</v>
       </c>
       <c r="H63">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I63">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J63">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K63">
         <v>3.2</v>
       </c>
       <c r="L63">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M63">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N63">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O63">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P63">
         <v>2.12</v>
@@ -13625,13 +14030,13 @@
         <v>12.5</v>
       </c>
       <c r="Y63">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z63">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AA63">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB63">
         <v>8.800000000000001</v>
@@ -13652,10 +14057,10 @@
         <v>15.5</v>
       </c>
       <c r="AH63">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AI63">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ63">
         <v>18</v>
@@ -13688,43 +14093,43 @@
         <v>90</v>
       </c>
       <c r="AT63">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AU63">
         <v>70</v>
       </c>
       <c r="AV63">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AW63">
         <v>100</v>
       </c>
       <c r="AX63">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AY63">
         <v>980</v>
       </c>
       <c r="AZ63">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BA63">
         <v>85</v>
       </c>
       <c r="BB63">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BC63">
         <v>44</v>
       </c>
       <c r="BD63">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BE63">
         <v>1000</v>
       </c>
-      <c r="BF63">
-        <v>33173986</v>
+      <c r="BF63" t="s">
+        <v>320</v>
       </c>
       <c r="BG63">
         <v>364470</v>
@@ -13735,17 +14140,17 @@
       <c r="BI63">
         <v>58805</v>
       </c>
-      <c r="BJ63">
-        <v>1.227289669</v>
-      </c>
-      <c r="BK63">
-        <v>1.227289714</v>
-      </c>
-      <c r="BL63">
-        <v>0</v>
-      </c>
-      <c r="BM63">
-        <v>0</v>
+      <c r="BJ63" t="s">
+        <v>347</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>374</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>401</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:65">
@@ -13768,7 +14173,7 @@
         <v>1.85</v>
       </c>
       <c r="G64">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -13777,25 +14182,25 @@
         <v>5.8</v>
       </c>
       <c r="J64">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K64">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L64">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="M64">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="N64">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="O64">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="P64">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q64">
         <v>2.28</v>
@@ -13804,37 +14209,37 @@
         <v>1.78</v>
       </c>
       <c r="S64">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T64">
         <v>9.199999999999999</v>
       </c>
       <c r="U64">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V64">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W64">
         <v>980</v>
       </c>
       <c r="X64">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y64">
         <v>980</v>
       </c>
       <c r="Z64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>980</v>
+      </c>
+      <c r="AB64">
+        <v>6.2</v>
+      </c>
+      <c r="AC64">
         <v>7.4</v>
-      </c>
-      <c r="AA64">
-        <v>980</v>
-      </c>
-      <c r="AB64">
-        <v>6.6</v>
-      </c>
-      <c r="AC64">
-        <v>7.8</v>
       </c>
       <c r="AD64">
         <v>7.2</v>
@@ -13843,85 +14248,85 @@
         <v>8.6</v>
       </c>
       <c r="AF64">
-        <v>5.8</v>
+        <v>18</v>
       </c>
       <c r="AG64">
         <v>980</v>
       </c>
       <c r="AH64">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AI64">
         <v>980</v>
       </c>
       <c r="AJ64">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK64">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL64">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AM64">
         <v>11.5</v>
       </c>
       <c r="AN64">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="AO64">
         <v>980</v>
       </c>
       <c r="AP64">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AQ64">
         <v>980</v>
       </c>
       <c r="AR64">
+        <v>6.2</v>
+      </c>
+      <c r="AS64">
+        <v>980</v>
+      </c>
+      <c r="AT64">
+        <v>6.4</v>
+      </c>
+      <c r="AU64">
+        <v>980</v>
+      </c>
+      <c r="AV64">
+        <v>7.4</v>
+      </c>
+      <c r="AW64">
+        <v>980</v>
+      </c>
+      <c r="AX64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY64">
+        <v>980</v>
+      </c>
+      <c r="AZ64">
         <v>5.7</v>
       </c>
-      <c r="AS64">
-        <v>980</v>
-      </c>
-      <c r="AT64">
-        <v>5.9</v>
-      </c>
-      <c r="AU64">
-        <v>980</v>
-      </c>
-      <c r="AV64">
-        <v>6.6</v>
-      </c>
-      <c r="AW64">
-        <v>980</v>
-      </c>
-      <c r="AX64">
-        <v>7.4</v>
-      </c>
-      <c r="AY64">
-        <v>980</v>
-      </c>
-      <c r="AZ64">
-        <v>5.3</v>
-      </c>
       <c r="BA64">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="BB64">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BC64">
         <v>980</v>
       </c>
       <c r="BD64">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BE64">
         <v>1000</v>
       </c>
-      <c r="BF64">
-        <v>33183385</v>
+      <c r="BF64" t="s">
+        <v>321</v>
       </c>
       <c r="BG64">
         <v>15304043</v>
@@ -13932,17 +14337,17 @@
       <c r="BI64">
         <v>58805</v>
       </c>
-      <c r="BJ64">
-        <v>1.227444681</v>
-      </c>
-      <c r="BK64">
-        <v>1.227444727</v>
-      </c>
-      <c r="BL64">
-        <v>1.227444766</v>
-      </c>
-      <c r="BM64">
-        <v>1.22744469</v>
+      <c r="BJ64" t="s">
+        <v>348</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>375</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>402</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:65">
@@ -13962,58 +14367,58 @@
         <v>295</v>
       </c>
       <c r="F65">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G65">
         <v>2.14</v>
       </c>
       <c r="H65">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I65">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J65">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K65">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L65">
+        <v>1.81</v>
+      </c>
+      <c r="M65">
+        <v>1.93</v>
+      </c>
+      <c r="N65">
+        <v>2.06</v>
+      </c>
+      <c r="O65">
+        <v>2.22</v>
+      </c>
+      <c r="P65">
+        <v>1.86</v>
+      </c>
+      <c r="Q65">
+        <v>2.06</v>
+      </c>
+      <c r="R65">
         <v>1.94</v>
-      </c>
-      <c r="M65">
-        <v>2.02</v>
-      </c>
-      <c r="N65">
-        <v>1.98</v>
-      </c>
-      <c r="O65">
-        <v>2.08</v>
-      </c>
-      <c r="P65">
-        <v>1.84</v>
-      </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
-      <c r="R65">
-        <v>2</v>
       </c>
       <c r="S65">
         <v>2.18</v>
       </c>
       <c r="T65">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="U65">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V65">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="W65">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="X65">
         <v>20</v>
@@ -14022,22 +14427,22 @@
         <v>980</v>
       </c>
       <c r="Z65">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA65">
         <v>980</v>
       </c>
       <c r="AB65">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC65">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD65">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE65">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AF65">
         <v>14</v>
@@ -14046,7 +14451,7 @@
         <v>980</v>
       </c>
       <c r="AH65">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI65">
         <v>980</v>
@@ -14070,19 +14475,19 @@
         <v>980</v>
       </c>
       <c r="AP65">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ65">
         <v>980</v>
       </c>
       <c r="AR65">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AS65">
         <v>980</v>
       </c>
       <c r="AT65">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AU65">
         <v>980</v>
@@ -14094,31 +14499,31 @@
         <v>980</v>
       </c>
       <c r="AX65">
+        <v>7.2</v>
+      </c>
+      <c r="AY65">
+        <v>980</v>
+      </c>
+      <c r="AZ65">
+        <v>5.3</v>
+      </c>
+      <c r="BA65">
+        <v>55</v>
+      </c>
+      <c r="BB65">
         <v>6.8</v>
       </c>
-      <c r="AY65">
-        <v>980</v>
-      </c>
-      <c r="AZ65">
-        <v>5</v>
-      </c>
-      <c r="BA65">
-        <v>17</v>
-      </c>
-      <c r="BB65">
-        <v>6.2</v>
-      </c>
       <c r="BC65">
         <v>980</v>
       </c>
       <c r="BD65">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BE65">
         <v>1000</v>
       </c>
-      <c r="BF65">
-        <v>33179196</v>
+      <c r="BF65" t="s">
+        <v>322</v>
       </c>
       <c r="BG65">
         <v>339727</v>
@@ -14129,17 +14534,17 @@
       <c r="BI65">
         <v>58805</v>
       </c>
-      <c r="BJ65">
-        <v>1.227384732</v>
-      </c>
-      <c r="BK65">
-        <v>1.227384777</v>
-      </c>
-      <c r="BL65">
-        <v>0</v>
-      </c>
-      <c r="BM65">
-        <v>0</v>
+      <c r="BJ65" t="s">
+        <v>349</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>376</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:65">
@@ -14159,28 +14564,28 @@
         <v>296</v>
       </c>
       <c r="F66">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G66">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="H66">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="I66">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J66">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K66">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -14192,10 +14597,10 @@
         <v>1.89</v>
       </c>
       <c r="Q66">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S66">
         <v>2.14</v>
@@ -14207,13 +14612,13 @@
         <v>13</v>
       </c>
       <c r="V66">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="W66">
         <v>8.4</v>
       </c>
       <c r="X66">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y66">
         <v>10.5</v>
@@ -14222,13 +14627,13 @@
         <v>16</v>
       </c>
       <c r="AA66">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB66">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC66">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD66">
         <v>7.8</v>
@@ -14255,7 +14660,7 @@
         <v>46</v>
       </c>
       <c r="AL66">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM66">
         <v>22</v>
@@ -14264,7 +14669,7 @@
         <v>19.5</v>
       </c>
       <c r="AO66">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AP66">
         <v>32</v>
@@ -14276,13 +14681,13 @@
         <v>13</v>
       </c>
       <c r="AS66">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AT66">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AU66">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AV66">
         <v>48</v>
@@ -14291,16 +14696,16 @@
         <v>980</v>
       </c>
       <c r="AX66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY66">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AZ66">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BA66">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="BB66">
         <v>10.5</v>
@@ -14309,13 +14714,13 @@
         <v>12.5</v>
       </c>
       <c r="BD66">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BE66">
         <v>1000</v>
       </c>
-      <c r="BF66">
-        <v>33170686</v>
+      <c r="BF66" t="s">
+        <v>323</v>
       </c>
       <c r="BG66">
         <v>46283</v>
@@ -14326,17 +14731,17 @@
       <c r="BI66">
         <v>58805</v>
       </c>
-      <c r="BJ66">
-        <v>1.227218098</v>
-      </c>
-      <c r="BK66">
-        <v>1.227218143</v>
-      </c>
-      <c r="BL66">
-        <v>0</v>
-      </c>
-      <c r="BM66">
-        <v>0</v>
+      <c r="BJ66" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>377</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>404</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:65">
@@ -14356,34 +14761,34 @@
         <v>297</v>
       </c>
       <c r="F67">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G67">
         <v>3.55</v>
       </c>
       <c r="H67">
+        <v>2.14</v>
+      </c>
+      <c r="I67">
+        <v>2.26</v>
+      </c>
+      <c r="J67">
+        <v>3.75</v>
+      </c>
+      <c r="K67">
+        <v>4.2</v>
+      </c>
+      <c r="L67">
         <v>2.22</v>
       </c>
-      <c r="I67">
-        <v>2.36</v>
-      </c>
-      <c r="J67">
-        <v>3.65</v>
-      </c>
-      <c r="K67">
-        <v>4.1</v>
-      </c>
-      <c r="L67">
-        <v>2.16</v>
-      </c>
       <c r="M67">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="N67">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O67">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="P67">
         <v>1.66</v>
@@ -14392,7 +14797,7 @@
         <v>1.77</v>
       </c>
       <c r="R67">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S67">
         <v>2.52</v>
@@ -14410,19 +14815,19 @@
         <v>14.5</v>
       </c>
       <c r="X67">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y67">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z67">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AA67">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB67">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AC67">
         <v>19</v>
@@ -14431,7 +14836,7 @@
         <v>7.8</v>
       </c>
       <c r="AE67">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF67">
         <v>9.800000000000001</v>
@@ -14440,10 +14845,10 @@
         <v>13.5</v>
       </c>
       <c r="AH67">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AI67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ67">
         <v>4.5</v>
@@ -14452,7 +14857,7 @@
         <v>30</v>
       </c>
       <c r="AL67">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AM67">
         <v>17.5</v>
@@ -14464,37 +14869,37 @@
         <v>21</v>
       </c>
       <c r="AP67">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AQ67">
         <v>980</v>
       </c>
       <c r="AR67">
+        <v>4.8</v>
+      </c>
+      <c r="AS67">
+        <v>980</v>
+      </c>
+      <c r="AT67">
         <v>4.6</v>
-      </c>
-      <c r="AS67">
-        <v>980</v>
-      </c>
-      <c r="AT67">
-        <v>4.5</v>
       </c>
       <c r="AU67">
         <v>44</v>
       </c>
       <c r="AV67">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AW67">
         <v>980</v>
       </c>
       <c r="AX67">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY67">
         <v>980</v>
       </c>
       <c r="AZ67">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA67">
         <v>34</v>
@@ -14506,13 +14911,13 @@
         <v>55</v>
       </c>
       <c r="BD67">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE67">
         <v>1000</v>
       </c>
-      <c r="BF67">
-        <v>33171818</v>
+      <c r="BF67" t="s">
+        <v>324</v>
       </c>
       <c r="BG67">
         <v>539982</v>
@@ -14523,17 +14928,17 @@
       <c r="BI67">
         <v>58805</v>
       </c>
-      <c r="BJ67">
-        <v>1.227244514</v>
-      </c>
-      <c r="BK67">
-        <v>1.227244559</v>
-      </c>
-      <c r="BL67">
-        <v>0</v>
-      </c>
-      <c r="BM67">
-        <v>0</v>
+      <c r="BJ67" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK67" t="s">
+        <v>378</v>
+      </c>
+      <c r="BL67" t="s">
+        <v>405</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:65">
@@ -14553,10 +14958,10 @@
         <v>298</v>
       </c>
       <c r="F68">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G68">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H68">
         <v>11.5</v>
@@ -14565,67 +14970,67 @@
         <v>12</v>
       </c>
       <c r="J68">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K68">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L68">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="M68">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="N68">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O68">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q68">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R68">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
         <v>17.5</v>
       </c>
       <c r="U68">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V68">
         <v>32</v>
       </c>
       <c r="W68">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X68">
         <v>80</v>
       </c>
       <c r="Y68">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z68">
         <v>100</v>
       </c>
       <c r="AA68">
-        <v>470</v>
+        <v>980</v>
       </c>
       <c r="AB68">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC68">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD68">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE68">
         <v>12</v>
@@ -14634,7 +15039,7 @@
         <v>38</v>
       </c>
       <c r="AG68">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AH68">
         <v>100</v>
@@ -14661,7 +15066,7 @@
         <v>32</v>
       </c>
       <c r="AP68">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ68">
         <v>170</v>
@@ -14673,13 +15078,13 @@
         <v>10.5</v>
       </c>
       <c r="AT68">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AU68">
         <v>14.5</v>
       </c>
       <c r="AV68">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AW68">
         <v>40</v>
@@ -14691,25 +15096,25 @@
         <v>200</v>
       </c>
       <c r="AZ68">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BA68">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BB68">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC68">
         <v>300</v>
       </c>
       <c r="BD68">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="BE68">
         <v>1000</v>
       </c>
-      <c r="BF68">
-        <v>33155647</v>
+      <c r="BF68" t="s">
+        <v>325</v>
       </c>
       <c r="BG68">
         <v>56966</v>
@@ -14720,17 +15125,17 @@
       <c r="BI68">
         <v>58805</v>
       </c>
-      <c r="BJ68">
-        <v>1.226955764</v>
-      </c>
-      <c r="BK68">
-        <v>1.226955748</v>
-      </c>
-      <c r="BL68">
-        <v>1.226955763</v>
-      </c>
-      <c r="BM68">
-        <v>1.226955773</v>
+      <c r="BJ68" t="s">
+        <v>352</v>
+      </c>
+      <c r="BK68" t="s">
+        <v>379</v>
+      </c>
+      <c r="BL68" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:65">
@@ -14750,73 +15155,73 @@
         <v>299</v>
       </c>
       <c r="F69">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H69">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="I69">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J69">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K69">
         <v>3.6</v>
       </c>
       <c r="L69">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M69">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="N69">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="O69">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R69">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="S69">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="T69">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U69">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V69">
         <v>6</v>
       </c>
       <c r="W69">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X69">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y69">
         <v>9.6</v>
       </c>
       <c r="Z69">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA69">
         <v>21</v>
       </c>
       <c r="AB69">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC69">
         <v>14.5</v>
@@ -14828,10 +15233,10 @@
         <v>8</v>
       </c>
       <c r="AF69">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG69">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH69">
         <v>22</v>
@@ -14840,73 +15245,73 @@
         <v>27</v>
       </c>
       <c r="AJ69">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK69">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL69">
         <v>20</v>
       </c>
       <c r="AM69">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN69">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO69">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP69">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AQ69">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR69">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AS69">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AT69">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AU69">
         <v>100</v>
       </c>
       <c r="AV69">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AW69">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AX69">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AY69">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AZ69">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BA69">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="BB69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BC69">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="BD69">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BE69">
         <v>1000</v>
       </c>
-      <c r="BF69">
-        <v>33169537</v>
+      <c r="BF69" t="s">
+        <v>326</v>
       </c>
       <c r="BG69">
         <v>184329</v>
@@ -14917,17 +15322,17 @@
       <c r="BI69">
         <v>58805</v>
       </c>
-      <c r="BJ69">
-        <v>1.227187615</v>
-      </c>
-      <c r="BK69">
-        <v>1.22718766</v>
-      </c>
-      <c r="BL69">
-        <v>0</v>
-      </c>
-      <c r="BM69">
-        <v>0</v>
+      <c r="BJ69" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK69" t="s">
+        <v>380</v>
+      </c>
+      <c r="BL69" t="s">
+        <v>407</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -14950,40 +15355,40 @@
         <v>2.02</v>
       </c>
       <c r="G70">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H70">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K70">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L70">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M70">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="N70">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O70">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="P70">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q70">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R70">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S70">
         <v>1.87</v>
@@ -15007,16 +15412,16 @@
         <v>34</v>
       </c>
       <c r="Z70">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA70">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AB70">
         <v>6.4</v>
       </c>
       <c r="AC70">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD70">
         <v>7</v>
@@ -15034,7 +15439,7 @@
         <v>46</v>
       </c>
       <c r="AI70">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ70">
         <v>9.800000000000001</v>
@@ -15052,13 +15457,13 @@
         <v>22</v>
       </c>
       <c r="AO70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP70">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ70">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR70">
         <v>21</v>
@@ -15079,31 +15484,31 @@
         <v>60</v>
       </c>
       <c r="AX70">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY70">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AZ70">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA70">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB70">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="BC70">
         <v>120</v>
       </c>
       <c r="BD70">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE70">
         <v>1000</v>
       </c>
-      <c r="BF70">
-        <v>33169545</v>
+      <c r="BF70" t="s">
+        <v>327</v>
       </c>
       <c r="BG70">
         <v>46928</v>
@@ -15114,17 +15519,17 @@
       <c r="BI70">
         <v>58805</v>
       </c>
-      <c r="BJ70">
-        <v>1.227187255</v>
-      </c>
-      <c r="BK70">
-        <v>1.2271873</v>
-      </c>
-      <c r="BL70">
-        <v>0</v>
-      </c>
-      <c r="BM70">
-        <v>0</v>
+      <c r="BJ70" t="s">
+        <v>354</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>381</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>408</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:65">
@@ -15144,13 +15549,13 @@
         <v>301</v>
       </c>
       <c r="F71">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G71">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H71">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I71">
         <v>1.78</v>
@@ -15159,37 +15564,37 @@
         <v>3.7</v>
       </c>
       <c r="K71">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L71">
         <v>1.75</v>
       </c>
       <c r="M71">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="N71">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O71">
         <v>2.34</v>
       </c>
       <c r="P71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q71">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R71">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T71">
         <v>9.800000000000001</v>
       </c>
       <c r="U71">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V71">
         <v>6.4</v>
@@ -15210,16 +15615,16 @@
         <v>21</v>
       </c>
       <c r="AB71">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD71">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE71">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AF71">
         <v>8.800000000000001</v>
@@ -15228,79 +15633,79 @@
         <v>11.5</v>
       </c>
       <c r="AH71">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="AI71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ71">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AK71">
         <v>980</v>
       </c>
       <c r="AL71">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AM71">
         <v>980</v>
       </c>
       <c r="AN71">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO71">
         <v>980</v>
       </c>
       <c r="AP71">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AQ71">
         <v>980</v>
       </c>
       <c r="AR71">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AS71">
         <v>980</v>
       </c>
       <c r="AT71">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AU71">
         <v>980</v>
       </c>
       <c r="AV71">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AW71">
         <v>980</v>
       </c>
       <c r="AX71">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AY71">
         <v>980</v>
       </c>
       <c r="AZ71">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BA71">
         <v>980</v>
       </c>
       <c r="BB71">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BC71">
         <v>55</v>
       </c>
       <c r="BD71">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BE71">
         <v>1000</v>
       </c>
-      <c r="BF71">
-        <v>33173988</v>
+      <c r="BF71" t="s">
+        <v>328</v>
       </c>
       <c r="BG71">
         <v>184328</v>
@@ -15311,17 +15716,17 @@
       <c r="BI71">
         <v>58805</v>
       </c>
-      <c r="BJ71">
-        <v>0</v>
-      </c>
-      <c r="BK71">
-        <v>1.227289614</v>
-      </c>
-      <c r="BL71">
-        <v>0</v>
-      </c>
-      <c r="BM71">
-        <v>0</v>
+      <c r="BJ71" t="s">
+        <v>355</v>
+      </c>
+      <c r="BK71" t="s">
+        <v>382</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>409</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:65">
@@ -15341,67 +15746,67 @@
         <v>302</v>
       </c>
       <c r="F72">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G72">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H72">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I72">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="J72">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K72">
         <v>3.8</v>
       </c>
       <c r="L72">
+        <v>1.92</v>
+      </c>
+      <c r="M72">
         <v>1.98</v>
       </c>
-      <c r="M72">
+      <c r="N72">
+        <v>2.02</v>
+      </c>
+      <c r="O72">
+        <v>2.1</v>
+      </c>
+      <c r="P72">
+        <v>1.79</v>
+      </c>
+      <c r="Q72">
+        <v>1.92</v>
+      </c>
+      <c r="R72">
         <v>2.08</v>
       </c>
-      <c r="N72">
-        <v>1.92</v>
-      </c>
-      <c r="O72">
-        <v>2.04</v>
-      </c>
-      <c r="P72">
-        <v>1.77</v>
-      </c>
-      <c r="Q72">
-        <v>1.88</v>
-      </c>
-      <c r="R72">
-        <v>2.12</v>
-      </c>
       <c r="S72">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T72">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U72">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V72">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="W72">
         <v>980</v>
       </c>
       <c r="X72">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y72">
         <v>17</v>
       </c>
       <c r="Z72">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA72">
         <v>980</v>
@@ -15425,31 +15830,31 @@
         <v>980</v>
       </c>
       <c r="AH72">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI72">
         <v>980</v>
       </c>
       <c r="AJ72">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AK72">
         <v>980</v>
       </c>
       <c r="AL72">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AM72">
         <v>16.5</v>
       </c>
       <c r="AN72">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO72">
         <v>980</v>
       </c>
       <c r="AP72">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AQ72">
         <v>980</v>
@@ -15461,7 +15866,7 @@
         <v>980</v>
       </c>
       <c r="AT72">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AU72">
         <v>980</v>
@@ -15473,31 +15878,31 @@
         <v>980</v>
       </c>
       <c r="AX72">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AY72">
         <v>980</v>
       </c>
       <c r="AZ72">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="BA72">
         <v>980</v>
       </c>
       <c r="BB72">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BC72">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="BD72">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BE72">
         <v>1000</v>
       </c>
-      <c r="BF72">
-        <v>33169542</v>
+      <c r="BF72" t="s">
+        <v>329</v>
       </c>
       <c r="BG72">
         <v>392220</v>
@@ -15508,17 +15913,17 @@
       <c r="BI72">
         <v>58805</v>
       </c>
-      <c r="BJ72">
-        <v>0</v>
-      </c>
-      <c r="BK72">
-        <v>1.22718748</v>
-      </c>
-      <c r="BL72">
-        <v>0</v>
-      </c>
-      <c r="BM72">
-        <v>0</v>
+      <c r="BJ72" t="s">
+        <v>356</v>
+      </c>
+      <c r="BK72" t="s">
+        <v>383</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>410</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:65">
@@ -15538,43 +15943,43 @@
         <v>303</v>
       </c>
       <c r="F73">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G73">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H73">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I73">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J73">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L73">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="M73">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="O73">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="P73">
         <v>2.04</v>
       </c>
       <c r="Q73">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R73">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.97</v>
@@ -15583,7 +15988,7 @@
         <v>8</v>
       </c>
       <c r="U73">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V73">
         <v>7.2</v>
@@ -15598,28 +16003,28 @@
         <v>16</v>
       </c>
       <c r="Z73">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AA73">
         <v>980</v>
       </c>
       <c r="AB73">
-        <v>9.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="AC73">
         <v>14</v>
       </c>
       <c r="AD73">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AE73">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AF73">
-        <v>9.6</v>
+        <v>4</v>
       </c>
       <c r="AG73">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH73">
         <v>4.6</v>
@@ -15628,19 +16033,19 @@
         <v>980</v>
       </c>
       <c r="AJ73">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AK73">
         <v>980</v>
       </c>
       <c r="AL73">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AM73">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN73">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO73">
         <v>980</v>
@@ -15670,31 +16075,31 @@
         <v>980</v>
       </c>
       <c r="AX73">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AY73">
         <v>980</v>
       </c>
       <c r="AZ73">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="BA73">
         <v>980</v>
       </c>
       <c r="BB73">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BC73">
         <v>980</v>
       </c>
       <c r="BD73">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BE73">
         <v>1000</v>
       </c>
-      <c r="BF73">
-        <v>33169539</v>
+      <c r="BF73" t="s">
+        <v>330</v>
       </c>
       <c r="BG73">
         <v>4064631</v>
@@ -15705,17 +16110,17 @@
       <c r="BI73">
         <v>58805</v>
       </c>
-      <c r="BJ73">
-        <v>0</v>
-      </c>
-      <c r="BK73">
-        <v>1.22718757</v>
-      </c>
-      <c r="BL73">
-        <v>0</v>
-      </c>
-      <c r="BM73">
-        <v>0</v>
+      <c r="BJ73" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK73" t="s">
+        <v>384</v>
+      </c>
+      <c r="BL73" t="s">
+        <v>411</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:65">
@@ -15735,67 +16140,67 @@
         <v>304</v>
       </c>
       <c r="F74">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="G74">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="H74">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J74">
         <v>3.5</v>
       </c>
       <c r="K74">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L74">
         <v>1.87</v>
       </c>
       <c r="M74">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N74">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O74">
         <v>2.16</v>
       </c>
       <c r="P74">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q74">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R74">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S74">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T74">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="U74">
         <v>980</v>
       </c>
       <c r="V74">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="W74">
         <v>980</v>
       </c>
       <c r="X74">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="Y74">
         <v>980</v>
       </c>
       <c r="Z74">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AA74">
         <v>980</v>
@@ -15807,25 +16212,25 @@
         <v>10.5</v>
       </c>
       <c r="AD74">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE74">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AF74">
+        <v>5.8</v>
+      </c>
+      <c r="AG74">
+        <v>980</v>
+      </c>
+      <c r="AH74">
+        <v>7.2</v>
+      </c>
+      <c r="AI74">
+        <v>980</v>
+      </c>
+      <c r="AJ74">
         <v>5.7</v>
-      </c>
-      <c r="AG74">
-        <v>980</v>
-      </c>
-      <c r="AH74">
-        <v>6.4</v>
-      </c>
-      <c r="AI74">
-        <v>980</v>
-      </c>
-      <c r="AJ74">
-        <v>5.3</v>
       </c>
       <c r="AK74">
         <v>980</v>
@@ -15837,61 +16242,61 @@
         <v>980</v>
       </c>
       <c r="AN74">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO74">
         <v>980</v>
       </c>
       <c r="AP74">
+        <v>7.6</v>
+      </c>
+      <c r="AQ74">
+        <v>980</v>
+      </c>
+      <c r="AR74">
         <v>6.6</v>
       </c>
-      <c r="AQ74">
-        <v>980</v>
-      </c>
-      <c r="AR74">
-        <v>6</v>
-      </c>
       <c r="AS74">
         <v>980</v>
       </c>
       <c r="AT74">
+        <v>6.4</v>
+      </c>
+      <c r="AU74">
+        <v>980</v>
+      </c>
+      <c r="AV74">
+        <v>7.2</v>
+      </c>
+      <c r="AW74">
+        <v>980</v>
+      </c>
+      <c r="AX74">
+        <v>8</v>
+      </c>
+      <c r="AY74">
+        <v>980</v>
+      </c>
+      <c r="AZ74">
         <v>5.8</v>
       </c>
-      <c r="AU74">
-        <v>980</v>
-      </c>
-      <c r="AV74">
-        <v>6.4</v>
-      </c>
-      <c r="AW74">
-        <v>980</v>
-      </c>
-      <c r="AX74">
-        <v>7</v>
-      </c>
-      <c r="AY74">
-        <v>980</v>
-      </c>
-      <c r="AZ74">
-        <v>5.3</v>
-      </c>
       <c r="BA74">
         <v>980</v>
       </c>
       <c r="BB74">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="BC74">
         <v>980</v>
       </c>
       <c r="BD74">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="BE74">
         <v>1000</v>
       </c>
-      <c r="BF74">
-        <v>33169544</v>
+      <c r="BF74" t="s">
+        <v>331</v>
       </c>
       <c r="BG74">
         <v>38594512</v>
@@ -15902,17 +16307,17 @@
       <c r="BI74">
         <v>58805</v>
       </c>
-      <c r="BJ74">
-        <v>0</v>
-      </c>
-      <c r="BK74">
-        <v>1.22718739</v>
-      </c>
-      <c r="BL74">
-        <v>0</v>
-      </c>
-      <c r="BM74">
-        <v>0</v>
+      <c r="BJ74" t="s">
+        <v>358</v>
+      </c>
+      <c r="BK74" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL74" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:65">
@@ -15932,7 +16337,7 @@
         <v>305</v>
       </c>
       <c r="F75">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G75">
         <v>2.26</v>
@@ -15947,31 +16352,31 @@
         <v>3.6</v>
       </c>
       <c r="K75">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L75">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>2.06</v>
       </c>
       <c r="N75">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O75">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P75">
         <v>1.76</v>
       </c>
       <c r="Q75">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R75">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S75">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T75">
         <v>13</v>
@@ -15992,7 +16397,7 @@
         <v>25</v>
       </c>
       <c r="Z75">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AA75">
         <v>65</v>
@@ -16016,16 +16421,16 @@
         <v>14.5</v>
       </c>
       <c r="AH75">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI75">
         <v>40</v>
       </c>
       <c r="AJ75">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK75">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL75">
         <v>10</v>
@@ -16040,13 +16445,13 @@
         <v>17.5</v>
       </c>
       <c r="AP75">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ75">
         <v>50</v>
       </c>
       <c r="AR75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS75">
         <v>29</v>
@@ -16073,13 +16478,13 @@
         <v>15</v>
       </c>
       <c r="BA75">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BB75">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BC75">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BD75">
         <v>21</v>
@@ -16087,8 +16492,8 @@
       <c r="BE75">
         <v>980</v>
       </c>
-      <c r="BF75">
-        <v>33171758</v>
+      <c r="BF75" t="s">
+        <v>332</v>
       </c>
       <c r="BG75">
         <v>189832</v>
@@ -16099,17 +16504,17 @@
       <c r="BI75">
         <v>58805</v>
       </c>
-      <c r="BJ75">
-        <v>1.227242516</v>
-      </c>
-      <c r="BK75">
-        <v>1.227242526</v>
-      </c>
-      <c r="BL75">
-        <v>0</v>
-      </c>
-      <c r="BM75">
-        <v>0</v>
+      <c r="BJ75" t="s">
+        <v>359</v>
+      </c>
+      <c r="BK75" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL75" t="s">
+        <v>413</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:65">
@@ -16129,34 +16534,34 @@
         <v>306</v>
       </c>
       <c r="F76">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G76">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H76">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I76">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J76">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K76">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L76">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="M76">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N76">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O76">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="P76">
         <v>1.95</v>
@@ -16174,28 +16579,28 @@
         <v>9.4</v>
       </c>
       <c r="U76">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V76">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W76">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X76">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y76">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z76">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA76">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB76">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC76">
         <v>12</v>
@@ -16204,76 +16609,76 @@
         <v>6.8</v>
       </c>
       <c r="AE76">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AF76">
         <v>10.5</v>
       </c>
       <c r="AG76">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH76">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI76">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ76">
+        <v>21</v>
+      </c>
+      <c r="AK76">
+        <v>23</v>
+      </c>
+      <c r="AL76">
+        <v>14</v>
+      </c>
+      <c r="AM76">
+        <v>15.5</v>
+      </c>
+      <c r="AN76">
         <v>19</v>
       </c>
-      <c r="AK76">
-        <v>27</v>
-      </c>
-      <c r="AL76">
-        <v>12.5</v>
-      </c>
-      <c r="AM76">
-        <v>16</v>
-      </c>
-      <c r="AN76">
-        <v>16.5</v>
-      </c>
       <c r="AO76">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP76">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AQ76">
+        <v>50</v>
+      </c>
+      <c r="AR76">
+        <v>44</v>
+      </c>
+      <c r="AS76">
+        <v>70</v>
+      </c>
+      <c r="AT76">
+        <v>42</v>
+      </c>
+      <c r="AU76">
+        <v>48</v>
+      </c>
+      <c r="AV76">
+        <v>46</v>
+      </c>
+      <c r="AW76">
+        <v>65</v>
+      </c>
+      <c r="AX76">
+        <v>17</v>
+      </c>
+      <c r="AY76">
+        <v>140</v>
+      </c>
+      <c r="AZ76">
+        <v>14.5</v>
+      </c>
+      <c r="BA76">
         <v>55</v>
       </c>
-      <c r="AR76">
-        <v>8</v>
-      </c>
-      <c r="AS76">
-        <v>980</v>
-      </c>
-      <c r="AT76">
-        <v>7.6</v>
-      </c>
-      <c r="AU76">
-        <v>55</v>
-      </c>
-      <c r="AV76">
-        <v>7.8</v>
-      </c>
-      <c r="AW76">
-        <v>980</v>
-      </c>
-      <c r="AX76">
-        <v>8.4</v>
-      </c>
-      <c r="AY76">
-        <v>980</v>
-      </c>
-      <c r="AZ76">
-        <v>12</v>
-      </c>
-      <c r="BA76">
-        <v>60</v>
-      </c>
       <c r="BB76">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="BC76">
         <v>26</v>
@@ -16284,8 +16689,8 @@
       <c r="BE76">
         <v>1000</v>
       </c>
-      <c r="BF76">
-        <v>33169546</v>
+      <c r="BF76" t="s">
+        <v>333</v>
       </c>
       <c r="BG76">
         <v>198746</v>
@@ -16296,17 +16701,17 @@
       <c r="BI76">
         <v>58805</v>
       </c>
-      <c r="BJ76">
-        <v>1.227187165</v>
-      </c>
-      <c r="BK76">
-        <v>1.22718721</v>
-      </c>
-      <c r="BL76">
-        <v>0</v>
-      </c>
-      <c r="BM76">
-        <v>0</v>
+      <c r="BJ76" t="s">
+        <v>360</v>
+      </c>
+      <c r="BK76" t="s">
+        <v>387</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>414</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:65">
@@ -16326,73 +16731,73 @@
         <v>307</v>
       </c>
       <c r="F77">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G77">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I77">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J77">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K77">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L77">
         <v>2.22</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N77">
         <v>1.78</v>
       </c>
       <c r="O77">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P77">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q77">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R77">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T77">
         <v>15.5</v>
       </c>
       <c r="U77">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="V77">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W77">
         <v>42</v>
       </c>
       <c r="X77">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y77">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Z77">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA77">
         <v>980</v>
       </c>
       <c r="AB77">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC77">
         <v>9</v>
@@ -16401,88 +16806,88 @@
         <v>11.5</v>
       </c>
       <c r="AE77">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF77">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG77">
         <v>55</v>
       </c>
       <c r="AH77">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AI77">
         <v>980</v>
       </c>
       <c r="AJ77">
+        <v>6.8</v>
+      </c>
+      <c r="AK77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL77">
+        <v>9</v>
+      </c>
+      <c r="AM77">
+        <v>10.5</v>
+      </c>
+      <c r="AN77">
+        <v>27</v>
+      </c>
+      <c r="AO77">
+        <v>42</v>
+      </c>
+      <c r="AP77">
         <v>7</v>
       </c>
-      <c r="AK77">
-        <v>8.4</v>
-      </c>
-      <c r="AL77">
+      <c r="AQ77">
+        <v>980</v>
+      </c>
+      <c r="AR77">
         <v>9.4</v>
       </c>
-      <c r="AM77">
+      <c r="AS77">
+        <v>11.5</v>
+      </c>
+      <c r="AT77">
         <v>13</v>
       </c>
-      <c r="AN77">
-        <v>24</v>
-      </c>
-      <c r="AO77">
-        <v>980</v>
-      </c>
-      <c r="AP77">
-        <v>7.8</v>
-      </c>
-      <c r="AQ77">
-        <v>210</v>
-      </c>
-      <c r="AR77">
-        <v>9.6</v>
-      </c>
-      <c r="AS77">
-        <v>12</v>
-      </c>
-      <c r="AT77">
-        <v>13.5</v>
-      </c>
       <c r="AU77">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AV77">
         <v>34</v>
       </c>
       <c r="AW77">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AX77">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AY77">
         <v>980</v>
       </c>
       <c r="AZ77">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BA77">
         <v>6.4</v>
       </c>
       <c r="BB77">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BC77">
         <v>980</v>
       </c>
       <c r="BD77">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="BE77">
         <v>1000</v>
       </c>
-      <c r="BF77">
-        <v>33171686</v>
+      <c r="BF77" t="s">
+        <v>334</v>
       </c>
       <c r="BG77">
         <v>184325</v>
@@ -16493,17 +16898,17 @@
       <c r="BI77">
         <v>58805</v>
       </c>
-      <c r="BJ77">
-        <v>1.227240092</v>
-      </c>
-      <c r="BK77">
-        <v>1.227240137</v>
-      </c>
-      <c r="BL77">
-        <v>0</v>
-      </c>
-      <c r="BM77">
-        <v>0</v>
+      <c r="BJ77" t="s">
+        <v>361</v>
+      </c>
+      <c r="BK77" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL77" t="s">
+        <v>415</v>
+      </c>
+      <c r="BM77" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:65">
@@ -16523,28 +16928,28 @@
         <v>308</v>
       </c>
       <c r="F78">
+        <v>2.08</v>
+      </c>
+      <c r="G78">
         <v>2.1</v>
       </c>
-      <c r="G78">
-        <v>2.12</v>
-      </c>
       <c r="H78">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J78">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K78">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L78">
         <v>1.87</v>
       </c>
       <c r="M78">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="N78">
         <v>2.1</v>
@@ -16559,7 +16964,7 @@
         <v>1.93</v>
       </c>
       <c r="R78">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S78">
         <v>2.12</v>
@@ -16574,10 +16979,10 @@
         <v>13</v>
       </c>
       <c r="W78">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X78">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y78">
         <v>26</v>
@@ -16586,13 +16991,13 @@
         <v>65</v>
       </c>
       <c r="AA78">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB78">
         <v>8.4</v>
       </c>
       <c r="AC78">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD78">
         <v>7.4</v>
@@ -16601,16 +17006,16 @@
         <v>7.6</v>
       </c>
       <c r="AF78">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG78">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH78">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI78">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ78">
         <v>11.5</v>
@@ -16619,13 +17024,13 @@
         <v>12</v>
       </c>
       <c r="AL78">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM78">
         <v>10.5</v>
       </c>
       <c r="AN78">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO78">
         <v>19</v>
@@ -16637,7 +17042,7 @@
         <v>60</v>
       </c>
       <c r="AR78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS78">
         <v>25</v>
@@ -16646,7 +17051,7 @@
         <v>20</v>
       </c>
       <c r="AU78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV78">
         <v>36</v>
@@ -16658,28 +17063,28 @@
         <v>100</v>
       </c>
       <c r="AY78">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AZ78">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA78">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BB78">
         <v>48</v>
       </c>
       <c r="BC78">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BD78">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="BE78">
-        <v>850</v>
-      </c>
-      <c r="BF78">
-        <v>33118750</v>
+        <v>750</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>335</v>
       </c>
       <c r="BG78">
         <v>44507</v>
@@ -16690,17 +17095,17 @@
       <c r="BI78">
         <v>58805</v>
       </c>
-      <c r="BJ78">
-        <v>1.22632985</v>
-      </c>
-      <c r="BK78">
-        <v>1.226329853</v>
-      </c>
-      <c r="BL78">
-        <v>1.226329898</v>
-      </c>
-      <c r="BM78">
-        <v>1.226329902</v>
+      <c r="BJ78" t="s">
+        <v>362</v>
+      </c>
+      <c r="BK78" t="s">
+        <v>389</v>
+      </c>
+      <c r="BL78" t="s">
+        <v>416</v>
+      </c>
+      <c r="BM78" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:65">
@@ -16720,73 +17125,73 @@
         <v>309</v>
       </c>
       <c r="F79">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="G79">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H79">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="I79">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J79">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K79">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L79">
+        <v>2.64</v>
+      </c>
+      <c r="M79">
         <v>2.66</v>
       </c>
-      <c r="M79">
-        <v>2.74</v>
-      </c>
       <c r="N79">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O79">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P79">
+        <v>1.77</v>
+      </c>
+      <c r="Q79">
         <v>1.8</v>
       </c>
-      <c r="Q79">
-        <v>1.83</v>
-      </c>
       <c r="R79">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="S79">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T79">
         <v>22</v>
       </c>
       <c r="U79">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V79">
         <v>10.5</v>
       </c>
       <c r="W79">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X79">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y79">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z79">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA79">
         <v>13.5</v>
       </c>
       <c r="AB79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC79">
         <v>32</v>
@@ -16816,31 +17221,31 @@
         <v>65</v>
       </c>
       <c r="AL79">
+        <v>25</v>
+      </c>
+      <c r="AM79">
         <v>26</v>
       </c>
-      <c r="AM79">
-        <v>27</v>
-      </c>
       <c r="AN79">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO79">
         <v>20</v>
       </c>
       <c r="AP79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR79">
         <v>150</v>
       </c>
       <c r="AS79">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AT79">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AU79">
         <v>80</v>
@@ -16849,10 +17254,10 @@
         <v>60</v>
       </c>
       <c r="AW79">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AX79">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AY79">
         <v>90</v>
@@ -16864,19 +17269,19 @@
         <v>85</v>
       </c>
       <c r="BB79">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BC79">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BD79">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="BE79">
-        <v>800</v>
-      </c>
-      <c r="BF79">
-        <v>33169541</v>
+        <v>730</v>
+      </c>
+      <c r="BF79" t="s">
+        <v>336</v>
       </c>
       <c r="BG79">
         <v>148733</v>
@@ -16887,17 +17292,17 @@
       <c r="BI79">
         <v>58805</v>
       </c>
-      <c r="BJ79">
-        <v>1.227188448</v>
-      </c>
-      <c r="BK79">
-        <v>1.227188458</v>
-      </c>
-      <c r="BL79">
-        <v>1.227188447</v>
-      </c>
-      <c r="BM79">
-        <v>1.227188457</v>
+      <c r="BJ79" t="s">
+        <v>363</v>
+      </c>
+      <c r="BK79" t="s">
+        <v>390</v>
+      </c>
+      <c r="BL79" t="s">
+        <v>417</v>
+      </c>
+      <c r="BM79" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:65">
@@ -16917,43 +17322,43 @@
         <v>310</v>
       </c>
       <c r="F80">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G80">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H80">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="I80">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="J80">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L80">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="M80">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="N80">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="O80">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P80">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q80">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R80">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S80">
         <v>2.1</v>
@@ -16962,7 +17367,7 @@
         <v>14</v>
       </c>
       <c r="U80">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V80">
         <v>8.199999999999999</v>
@@ -16971,37 +17376,37 @@
         <v>8.6</v>
       </c>
       <c r="X80">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y80">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z80">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA80">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB80">
         <v>17</v>
       </c>
       <c r="AC80">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD80">
         <v>8.199999999999999</v>
       </c>
       <c r="AE80">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF80">
         <v>9.6</v>
       </c>
       <c r="AG80">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI80">
         <v>17.5</v>
@@ -17010,13 +17415,13 @@
         <v>36</v>
       </c>
       <c r="AK80">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL80">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM80">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AN80">
         <v>19.5</v>
@@ -17025,16 +17430,16 @@
         <v>21</v>
       </c>
       <c r="AP80">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ80">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AR80">
         <v>80</v>
       </c>
       <c r="AS80">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AT80">
         <v>60</v>
@@ -17061,19 +17466,19 @@
         <v>80</v>
       </c>
       <c r="BB80">
+        <v>10</v>
+      </c>
+      <c r="BC80">
         <v>11</v>
       </c>
-      <c r="BC80">
-        <v>11.5</v>
-      </c>
       <c r="BD80">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="BE80">
         <v>1000</v>
       </c>
-      <c r="BF80">
-        <v>33155649</v>
+      <c r="BF80" t="s">
+        <v>337</v>
       </c>
       <c r="BG80">
         <v>44795</v>
@@ -17084,17 +17489,17 @@
       <c r="BI80">
         <v>58805</v>
       </c>
-      <c r="BJ80">
-        <v>1.226954914</v>
-      </c>
-      <c r="BK80">
-        <v>1.226954898</v>
-      </c>
-      <c r="BL80">
-        <v>1.226954913</v>
-      </c>
-      <c r="BM80">
-        <v>1.226954923</v>
+      <c r="BJ80" t="s">
+        <v>364</v>
+      </c>
+      <c r="BK80" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL80" t="s">
+        <v>418</v>
+      </c>
+      <c r="BM80" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:65">
@@ -17114,25 +17519,25 @@
         <v>311</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="G81">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="H81">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I81">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J81">
         <v>6.2</v>
       </c>
       <c r="K81">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L81">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="M81">
         <v>2.52</v>
@@ -17141,7 +17546,7 @@
         <v>1.66</v>
       </c>
       <c r="O81">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P81">
         <v>2.16</v>
@@ -17153,16 +17558,16 @@
         <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U81">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V81">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="W81">
         <v>9</v>
@@ -17174,7 +17579,7 @@
         <v>7.6</v>
       </c>
       <c r="Z81">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA81">
         <v>9.4</v>
@@ -17183,19 +17588,19 @@
         <v>44</v>
       </c>
       <c r="AC81">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD81">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF81">
         <v>9.6</v>
       </c>
       <c r="AG81">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH81">
         <v>13</v>
@@ -17204,13 +17609,13 @@
         <v>13.5</v>
       </c>
       <c r="AJ81">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK81">
         <v>160</v>
       </c>
       <c r="AL81">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM81">
         <v>65</v>
@@ -17219,43 +17624,43 @@
         <v>30</v>
       </c>
       <c r="AO81">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP81">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AQ81">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR81">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="AS81">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="AT81">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AU81">
         <v>280</v>
       </c>
       <c r="AV81">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AW81">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AX81">
         <v>100</v>
       </c>
       <c r="AY81">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="AZ81">
         <v>30</v>
       </c>
       <c r="BA81">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="BB81">
         <v>4.4</v>
@@ -17264,13 +17669,13 @@
         <v>4.8</v>
       </c>
       <c r="BD81">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="BE81">
         <v>1000</v>
       </c>
-      <c r="BF81">
-        <v>33172063</v>
+      <c r="BF81" t="s">
+        <v>338</v>
       </c>
       <c r="BG81">
         <v>48784</v>
@@ -17281,17 +17686,17 @@
       <c r="BI81">
         <v>58805</v>
       </c>
-      <c r="BJ81">
-        <v>1.227250813</v>
-      </c>
-      <c r="BK81">
-        <v>1.227250823</v>
-      </c>
-      <c r="BL81">
-        <v>0</v>
-      </c>
-      <c r="BM81">
-        <v>0</v>
+      <c r="BJ81" t="s">
+        <v>365</v>
+      </c>
+      <c r="BK81" t="s">
+        <v>392</v>
+      </c>
+      <c r="BL81" t="s">
+        <v>419</v>
+      </c>
+      <c r="BM81" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:65">
@@ -17311,25 +17716,25 @@
         <v>312</v>
       </c>
       <c r="F82">
+        <v>1.93</v>
+      </c>
+      <c r="G82">
         <v>1.98</v>
       </c>
-      <c r="G82">
-        <v>2.04</v>
-      </c>
       <c r="H82">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I82">
         <v>4.5</v>
       </c>
       <c r="J82">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K82">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="M82">
         <v>2.06</v>
@@ -17338,19 +17743,19 @@
         <v>1.95</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P82">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q82">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S82">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="T82">
         <v>12.5</v>
@@ -17359,10 +17764,10 @@
         <v>14</v>
       </c>
       <c r="V82">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W82">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="X82">
         <v>26</v>
@@ -17371,19 +17776,19 @@
         <v>980</v>
       </c>
       <c r="Z82">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA82">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AB82">
         <v>8.6</v>
       </c>
       <c r="AC82">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD82">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE82">
         <v>8.800000000000001</v>
@@ -17392,7 +17797,7 @@
         <v>15</v>
       </c>
       <c r="AG82">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH82">
         <v>34</v>
@@ -17401,13 +17806,13 @@
         <v>55</v>
       </c>
       <c r="AJ82">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK82">
         <v>13</v>
       </c>
       <c r="AL82">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM82">
         <v>10.5</v>
@@ -17422,16 +17827,16 @@
         <v>44</v>
       </c>
       <c r="AQ82">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AR82">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS82">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AT82">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AU82">
         <v>22</v>
@@ -17449,25 +17854,25 @@
         <v>110</v>
       </c>
       <c r="AZ82">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="BA82">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="BB82">
         <v>10.5</v>
       </c>
       <c r="BC82">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="BD82">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE82">
         <v>1000</v>
       </c>
-      <c r="BF82">
-        <v>33177119</v>
+      <c r="BF82" t="s">
+        <v>339</v>
       </c>
       <c r="BG82">
         <v>4972227</v>
@@ -17478,17 +17883,17 @@
       <c r="BI82">
         <v>58805</v>
       </c>
-      <c r="BJ82">
-        <v>0</v>
-      </c>
-      <c r="BK82">
-        <v>1.227350171</v>
-      </c>
-      <c r="BL82">
-        <v>0</v>
-      </c>
-      <c r="BM82">
-        <v>0</v>
+      <c r="BJ82" t="s">
+        <v>366</v>
+      </c>
+      <c r="BK82" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL82" t="s">
+        <v>420</v>
+      </c>
+      <c r="BM82" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:65">
@@ -17508,13 +17913,13 @@
         <v>313</v>
       </c>
       <c r="F83">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G83">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H83">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I83">
         <v>3.8</v>
@@ -17523,52 +17928,52 @@
         <v>3.45</v>
       </c>
       <c r="K83">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L83">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="M83">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="N83">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O83">
+        <v>2.1</v>
+      </c>
+      <c r="P83">
+        <v>1.79</v>
+      </c>
+      <c r="Q83">
+        <v>1.97</v>
+      </c>
+      <c r="R83">
         <v>2.04</v>
       </c>
-      <c r="P83">
-        <v>1.72</v>
-      </c>
-      <c r="Q83">
-        <v>1.98</v>
-      </c>
-      <c r="R83">
-        <v>2.02</v>
-      </c>
       <c r="S83">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="T83">
         <v>11</v>
       </c>
       <c r="U83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V83">
         <v>11</v>
       </c>
       <c r="W83">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X83">
         <v>20</v>
       </c>
       <c r="Y83">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z83">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AA83">
         <v>980</v>
@@ -17592,10 +17997,10 @@
         <v>18.5</v>
       </c>
       <c r="AH83">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AI83">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ83">
         <v>10</v>
@@ -17616,7 +18021,7 @@
         <v>23</v>
       </c>
       <c r="AP83">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AQ83">
         <v>980</v>
@@ -17634,37 +18039,37 @@
         <v>29</v>
       </c>
       <c r="AV83">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AW83">
         <v>980</v>
       </c>
       <c r="AX83">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AY83">
         <v>980</v>
       </c>
       <c r="AZ83">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BA83">
         <v>18.5</v>
       </c>
       <c r="BB83">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BC83">
         <v>980</v>
       </c>
       <c r="BD83">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BE83">
         <v>1000</v>
       </c>
-      <c r="BF83">
-        <v>33181831</v>
+      <c r="BF83" t="s">
+        <v>340</v>
       </c>
       <c r="BG83">
         <v>489163</v>
@@ -17675,17 +18080,17 @@
       <c r="BI83">
         <v>58805</v>
       </c>
-      <c r="BJ83">
-        <v>0</v>
-      </c>
-      <c r="BK83">
-        <v>1.227424739</v>
-      </c>
-      <c r="BL83">
-        <v>0</v>
-      </c>
-      <c r="BM83">
-        <v>0</v>
+      <c r="BJ83" t="s">
+        <v>367</v>
+      </c>
+      <c r="BK83" t="s">
+        <v>394</v>
+      </c>
+      <c r="BL83" t="s">
+        <v>421</v>
+      </c>
+      <c r="BM83" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:65">
@@ -17705,37 +18110,37 @@
         <v>314</v>
       </c>
       <c r="F84">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G84">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="H84">
         <v>5.1</v>
       </c>
       <c r="I84">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J84">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K84">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L84">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="M84">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N84">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O84">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="P84">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q84">
         <v>2.06</v>
@@ -17744,28 +18149,28 @@
         <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T84">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="U84">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V84">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="W84">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X84">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="Y84">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z84">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="AA84">
         <v>1000</v>
@@ -17774,70 +18179,70 @@
         <v>3.7</v>
       </c>
       <c r="AC84">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD84">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AE84">
         <v>10.5</v>
       </c>
       <c r="AF84">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AG84">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH84">
         <v>4.6</v>
       </c>
       <c r="AI84">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ84">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AK84">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL84">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AM84">
         <v>13.5</v>
       </c>
       <c r="AN84">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AO84">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP84">
         <v>4.6</v>
       </c>
       <c r="AQ84">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AR84">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AS84">
         <v>24</v>
       </c>
       <c r="AT84">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AU84">
         <v>22</v>
       </c>
       <c r="AV84">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AW84">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX84">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="AY84">
         <v>1000</v>
@@ -17849,19 +18254,19 @@
         <v>11.5</v>
       </c>
       <c r="BB84">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="BC84">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD84">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="BE84">
         <v>1000</v>
       </c>
-      <c r="BF84">
-        <v>33185054</v>
+      <c r="BF84" t="s">
+        <v>341</v>
       </c>
       <c r="BG84">
         <v>224547</v>
@@ -17872,17 +18277,17 @@
       <c r="BI84">
         <v>58805</v>
       </c>
-      <c r="BJ84">
-        <v>1.227470106</v>
-      </c>
-      <c r="BK84">
-        <v>1.227470151</v>
-      </c>
-      <c r="BL84">
-        <v>1.22747019</v>
-      </c>
-      <c r="BM84">
-        <v>1.227470115</v>
+      <c r="BJ84" t="s">
+        <v>368</v>
+      </c>
+      <c r="BK84" t="s">
+        <v>395</v>
+      </c>
+      <c r="BL84" t="s">
+        <v>422</v>
+      </c>
+      <c r="BM84" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:65">
@@ -17905,160 +18310,160 @@
         <v>1.82</v>
       </c>
       <c r="G85">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H85">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I85">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J85">
         <v>3.45</v>
       </c>
       <c r="K85">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L85">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="M85">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="N85">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O85">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="P85">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q85">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R85">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="S85">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T85">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U85">
         <v>980</v>
       </c>
       <c r="V85">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="W85">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X85">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="Y85">
         <v>980</v>
       </c>
       <c r="Z85">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="AA85">
         <v>1000</v>
       </c>
       <c r="AB85">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC85">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD85">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="AE85">
         <v>980</v>
       </c>
       <c r="AF85">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="AG85">
         <v>980</v>
       </c>
       <c r="AH85">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="AI85">
         <v>1000</v>
       </c>
       <c r="AJ85">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="AK85">
         <v>10.5</v>
       </c>
       <c r="AL85">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="AM85">
         <v>980</v>
       </c>
       <c r="AN85">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AO85">
         <v>980</v>
       </c>
       <c r="AP85">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="AQ85">
         <v>1000</v>
       </c>
       <c r="AR85">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AS85">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AT85">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="AU85">
         <v>980</v>
       </c>
       <c r="AV85">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="AW85">
         <v>980</v>
       </c>
       <c r="AX85">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="AY85">
         <v>980</v>
       </c>
       <c r="AZ85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BA85">
         <v>18</v>
       </c>
       <c r="BB85">
-        <v>2.16</v>
+        <v>3.6</v>
       </c>
       <c r="BC85">
         <v>980</v>
       </c>
       <c r="BD85">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="BE85">
         <v>1000</v>
       </c>
-      <c r="BF85">
-        <v>33172288</v>
+      <c r="BF85" t="s">
+        <v>342</v>
       </c>
       <c r="BG85">
         <v>2277370</v>
@@ -18069,17 +18474,17 @@
       <c r="BI85">
         <v>58805</v>
       </c>
-      <c r="BJ85">
-        <v>1.227252855</v>
-      </c>
-      <c r="BK85">
-        <v>1.2272529</v>
-      </c>
-      <c r="BL85">
-        <v>0</v>
-      </c>
-      <c r="BM85">
-        <v>0</v>
+      <c r="BJ85" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK85" t="s">
+        <v>396</v>
+      </c>
+      <c r="BL85" t="s">
+        <v>423</v>
+      </c>
+      <c r="BM85" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:65">
@@ -18099,19 +18504,19 @@
         <v>316</v>
       </c>
       <c r="F86">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H86">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I86">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="J86">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K86">
         <v>3.65</v>
@@ -18126,22 +18531,22 @@
         <v>2.08</v>
       </c>
       <c r="O86">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="P86">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q86">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R86">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T86">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U86">
         <v>14.5</v>
@@ -18159,7 +18564,7 @@
         <v>19.5</v>
       </c>
       <c r="Z86">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AA86">
         <v>980</v>
@@ -18183,79 +18588,79 @@
         <v>15</v>
       </c>
       <c r="AH86">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AI86">
         <v>36</v>
       </c>
       <c r="AJ86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AK86">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL86">
         <v>12</v>
       </c>
       <c r="AM86">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN86">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO86">
         <v>23</v>
       </c>
       <c r="AP86">
+        <v>4.1</v>
+      </c>
+      <c r="AQ86">
+        <v>980</v>
+      </c>
+      <c r="AR86">
+        <v>4.1</v>
+      </c>
+      <c r="AS86">
+        <v>980</v>
+      </c>
+      <c r="AT86">
         <v>4</v>
       </c>
-      <c r="AQ86">
-        <v>980</v>
-      </c>
-      <c r="AR86">
-        <v>4</v>
-      </c>
-      <c r="AS86">
-        <v>980</v>
-      </c>
-      <c r="AT86">
-        <v>3.9</v>
-      </c>
       <c r="AU86">
         <v>980</v>
       </c>
       <c r="AV86">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW86">
         <v>980</v>
       </c>
       <c r="AX86">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AY86">
         <v>980</v>
       </c>
       <c r="AZ86">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BA86">
         <v>980</v>
       </c>
       <c r="BB86">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="BC86">
         <v>32</v>
       </c>
       <c r="BD86">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE86">
         <v>1000</v>
       </c>
-      <c r="BF86">
-        <v>33172442</v>
+      <c r="BF86" t="s">
+        <v>343</v>
       </c>
       <c r="BG86">
         <v>1067928</v>
@@ -18266,17 +18671,17 @@
       <c r="BI86">
         <v>58805</v>
       </c>
-      <c r="BJ86">
-        <v>1.227259269</v>
-      </c>
-      <c r="BK86">
-        <v>1.227259314</v>
-      </c>
-      <c r="BL86">
-        <v>0</v>
-      </c>
-      <c r="BM86">
-        <v>0</v>
+      <c r="BJ86" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK86" t="s">
+        <v>397</v>
+      </c>
+      <c r="BL86" t="s">
+        <v>424</v>
+      </c>
+      <c r="BM86" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:65">
@@ -18296,19 +18701,19 @@
         <v>317</v>
       </c>
       <c r="F87">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G87">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H87">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I87">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="J87">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -18329,13 +18734,13 @@
         <v>1.84</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S87">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T87">
         <v>10</v>
@@ -18344,19 +18749,19 @@
         <v>980</v>
       </c>
       <c r="V87">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="W87">
         <v>980</v>
       </c>
       <c r="X87">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="Y87">
         <v>980</v>
       </c>
       <c r="Z87">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="AA87">
         <v>980</v>
@@ -18368,91 +18773,91 @@
         <v>980</v>
       </c>
       <c r="AD87">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE87">
         <v>980</v>
       </c>
       <c r="AF87">
-        <v>9.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="AG87">
         <v>980</v>
       </c>
       <c r="AH87">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="AI87">
         <v>980</v>
       </c>
       <c r="AJ87">
-        <v>5.7</v>
+        <v>16</v>
       </c>
       <c r="AK87">
         <v>980</v>
       </c>
       <c r="AL87">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM87">
         <v>980</v>
       </c>
       <c r="AN87">
-        <v>5.7</v>
+        <v>16.5</v>
       </c>
       <c r="AO87">
         <v>980</v>
       </c>
       <c r="AP87">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="AQ87">
         <v>980</v>
       </c>
       <c r="AR87">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="AS87">
         <v>980</v>
       </c>
       <c r="AT87">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AU87">
         <v>980</v>
       </c>
       <c r="AV87">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AW87">
         <v>980</v>
       </c>
       <c r="AX87">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="AY87">
         <v>1000</v>
       </c>
       <c r="AZ87">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="BA87">
         <v>980</v>
       </c>
       <c r="BB87">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="BC87">
         <v>980</v>
       </c>
       <c r="BD87">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="BE87">
         <v>1000</v>
       </c>
-      <c r="BF87">
-        <v>33181852</v>
+      <c r="BF87" t="s">
+        <v>344</v>
       </c>
       <c r="BG87">
         <v>56264858</v>
@@ -18463,17 +18868,17 @@
       <c r="BI87">
         <v>58805</v>
       </c>
-      <c r="BJ87">
-        <v>0</v>
-      </c>
-      <c r="BK87">
-        <v>1.227424849</v>
-      </c>
-      <c r="BL87">
-        <v>0</v>
-      </c>
-      <c r="BM87">
-        <v>0</v>
+      <c r="BJ87" t="s">
+        <v>371</v>
+      </c>
+      <c r="BK87" t="s">
+        <v>398</v>
+      </c>
+      <c r="BL87" t="s">
+        <v>425</v>
+      </c>
+      <c r="BM87" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:65">
@@ -18493,46 +18898,46 @@
         <v>318</v>
       </c>
       <c r="F88">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G88">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H88">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I88">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J88">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K88">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M88">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="N88">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="O88">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="P88">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q88">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R88">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S88">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T88">
         <v>12</v>
@@ -18553,7 +18958,7 @@
         <v>980</v>
       </c>
       <c r="Z88">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA88">
         <v>980</v>
@@ -18577,7 +18982,7 @@
         <v>18</v>
       </c>
       <c r="AH88">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI88">
         <v>46</v>
@@ -18619,13 +19024,13 @@
         <v>24</v>
       </c>
       <c r="AV88">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AW88">
         <v>40</v>
       </c>
       <c r="AX88">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AY88">
         <v>980</v>
@@ -18634,7 +19039,7 @@
         <v>4.2</v>
       </c>
       <c r="BA88">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BB88">
         <v>5.2</v>
@@ -18643,13 +19048,13 @@
         <v>40</v>
       </c>
       <c r="BD88">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BE88">
         <v>1000</v>
       </c>
-      <c r="BF88">
-        <v>33155438</v>
+      <c r="BF88" t="s">
+        <v>345</v>
       </c>
       <c r="BG88">
         <v>328926</v>
@@ -18660,17 +19065,17 @@
       <c r="BI88">
         <v>58805</v>
       </c>
-      <c r="BJ88">
-        <v>1.226946343</v>
-      </c>
-      <c r="BK88">
-        <v>1.226946388</v>
-      </c>
-      <c r="BL88">
-        <v>0</v>
-      </c>
-      <c r="BM88">
-        <v>0</v>
+      <c r="BJ88" t="s">
+        <v>372</v>
+      </c>
+      <c r="BK88" t="s">
+        <v>399</v>
+      </c>
+      <c r="BL88" t="s">
+        <v>426</v>
+      </c>
+      <c r="BM88" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:65">
@@ -18693,19 +19098,19 @@
         <v>3.2</v>
       </c>
       <c r="G89">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H89">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I89">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J89">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K89">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L89">
         <v>1.77</v>
@@ -18732,13 +19137,13 @@
         <v>2.3</v>
       </c>
       <c r="T89">
-        <v>3.15</v>
+        <v>10</v>
       </c>
       <c r="U89">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="V89">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W89">
         <v>980</v>
@@ -18747,106 +19152,106 @@
         <v>4.8</v>
       </c>
       <c r="Y89">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z89">
-        <v>2.08</v>
+        <v>5.4</v>
       </c>
       <c r="AA89">
         <v>980</v>
       </c>
       <c r="AB89">
+        <v>10.5</v>
+      </c>
+      <c r="AC89">
+        <v>980</v>
+      </c>
+      <c r="AD89">
+        <v>6.8</v>
+      </c>
+      <c r="AE89">
+        <v>980</v>
+      </c>
+      <c r="AF89">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG89">
+        <v>980</v>
+      </c>
+      <c r="AH89">
+        <v>22</v>
+      </c>
+      <c r="AI89">
+        <v>980</v>
+      </c>
+      <c r="AJ89">
+        <v>3.5</v>
+      </c>
+      <c r="AK89">
+        <v>980</v>
+      </c>
+      <c r="AL89">
+        <v>11.5</v>
+      </c>
+      <c r="AM89">
+        <v>980</v>
+      </c>
+      <c r="AN89">
+        <v>3.45</v>
+      </c>
+      <c r="AO89">
+        <v>980</v>
+      </c>
+      <c r="AP89">
+        <v>5.8</v>
+      </c>
+      <c r="AQ89">
+        <v>980</v>
+      </c>
+      <c r="AR89">
+        <v>5.8</v>
+      </c>
+      <c r="AS89">
+        <v>980</v>
+      </c>
+      <c r="AT89">
+        <v>28</v>
+      </c>
+      <c r="AU89">
+        <v>980</v>
+      </c>
+      <c r="AV89">
+        <v>3.8</v>
+      </c>
+      <c r="AW89">
+        <v>980</v>
+      </c>
+      <c r="AX89">
         <v>4</v>
-      </c>
-      <c r="AC89">
-        <v>980</v>
-      </c>
-      <c r="AD89">
-        <v>2.7</v>
-      </c>
-      <c r="AE89">
-        <v>980</v>
-      </c>
-      <c r="AF89">
-        <v>4.2</v>
-      </c>
-      <c r="AG89">
-        <v>980</v>
-      </c>
-      <c r="AH89">
-        <v>2.04</v>
-      </c>
-      <c r="AI89">
-        <v>980</v>
-      </c>
-      <c r="AJ89">
-        <v>3.45</v>
-      </c>
-      <c r="AK89">
-        <v>980</v>
-      </c>
-      <c r="AL89">
-        <v>3.2</v>
-      </c>
-      <c r="AM89">
-        <v>980</v>
-      </c>
-      <c r="AN89">
-        <v>3.4</v>
-      </c>
-      <c r="AO89">
-        <v>980</v>
-      </c>
-      <c r="AP89">
-        <v>2.1</v>
-      </c>
-      <c r="AQ89">
-        <v>980</v>
-      </c>
-      <c r="AR89">
-        <v>2.12</v>
-      </c>
-      <c r="AS89">
-        <v>980</v>
-      </c>
-      <c r="AT89">
-        <v>2.08</v>
-      </c>
-      <c r="AU89">
-        <v>980</v>
-      </c>
-      <c r="AV89">
-        <v>2.12</v>
-      </c>
-      <c r="AW89">
-        <v>980</v>
-      </c>
-      <c r="AX89">
-        <v>2.14</v>
       </c>
       <c r="AY89">
         <v>1000</v>
       </c>
       <c r="AZ89">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BA89">
         <v>980</v>
       </c>
       <c r="BB89">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="BC89">
         <v>980</v>
       </c>
       <c r="BD89">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="BE89">
         <v>1000</v>
       </c>
-      <c r="BF89">
-        <v>33172613</v>
+      <c r="BF89" t="s">
+        <v>346</v>
       </c>
       <c r="BG89">
         <v>328690</v>
@@ -18857,17 +19262,17 @@
       <c r="BI89">
         <v>58805</v>
       </c>
-      <c r="BJ89">
-        <v>1.227264335</v>
-      </c>
-      <c r="BK89">
-        <v>1.22726438</v>
-      </c>
-      <c r="BL89">
-        <v>0</v>
-      </c>
-      <c r="BM89">
-        <v>0</v>
+      <c r="BJ89" t="s">
+        <v>373</v>
+      </c>
+      <c r="BK89" t="s">
+        <v>400</v>
+      </c>
+      <c r="BL89" t="s">
+        <v>427</v>
+      </c>
+      <c r="BM89" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-12.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="340">
   <si>
     <t>League</t>
   </si>
@@ -976,75 +976,6 @@
     <t>America de Cali S.A</t>
   </si>
   <si>
-    <t>33173986</t>
-  </si>
-  <si>
-    <t>33183385</t>
-  </si>
-  <si>
-    <t>33179196</t>
-  </si>
-  <si>
-    <t>33170686</t>
-  </si>
-  <si>
-    <t>33171818</t>
-  </si>
-  <si>
-    <t>33155647</t>
-  </si>
-  <si>
-    <t>33169537</t>
-  </si>
-  <si>
-    <t>33169545</t>
-  </si>
-  <si>
-    <t>33173988</t>
-  </si>
-  <si>
-    <t>33169542</t>
-  </si>
-  <si>
-    <t>33169539</t>
-  </si>
-  <si>
-    <t>33169544</t>
-  </si>
-  <si>
-    <t>33171758</t>
-  </si>
-  <si>
-    <t>33169546</t>
-  </si>
-  <si>
-    <t>33171686</t>
-  </si>
-  <si>
-    <t>33118750</t>
-  </si>
-  <si>
-    <t>33169541</t>
-  </si>
-  <si>
-    <t>33155649</t>
-  </si>
-  <si>
-    <t>33172063</t>
-  </si>
-  <si>
-    <t>33177119</t>
-  </si>
-  <si>
-    <t>33181831</t>
-  </si>
-  <si>
-    <t>33185054</t>
-  </si>
-  <si>
-    <t>33172288</t>
-  </si>
-  <si>
     <t>33172442</t>
   </si>
   <si>
@@ -1057,75 +988,6 @@
     <t>33172613</t>
   </si>
   <si>
-    <t>1.227289669</t>
-  </si>
-  <si>
-    <t>1.227444681</t>
-  </si>
-  <si>
-    <t>1.227384732</t>
-  </si>
-  <si>
-    <t>1.227218098</t>
-  </si>
-  <si>
-    <t>1.227244514</t>
-  </si>
-  <si>
-    <t>1.226955764</t>
-  </si>
-  <si>
-    <t>1.227187615</t>
-  </si>
-  <si>
-    <t>1.227187255</t>
-  </si>
-  <si>
-    <t>1.227289569</t>
-  </si>
-  <si>
-    <t>1.227187435</t>
-  </si>
-  <si>
-    <t>1.227187525</t>
-  </si>
-  <si>
-    <t>1.227187345</t>
-  </si>
-  <si>
-    <t>1.227242516</t>
-  </si>
-  <si>
-    <t>1.227187165</t>
-  </si>
-  <si>
-    <t>1.227240092</t>
-  </si>
-  <si>
-    <t>1.226329850</t>
-  </si>
-  <si>
-    <t>1.227188448</t>
-  </si>
-  <si>
-    <t>1.226954914</t>
-  </si>
-  <si>
-    <t>1.227250813</t>
-  </si>
-  <si>
-    <t>1.227350126</t>
-  </si>
-  <si>
-    <t>1.227424694</t>
-  </si>
-  <si>
-    <t>1.227470106</t>
-  </si>
-  <si>
-    <t>1.227252855</t>
-  </si>
-  <si>
     <t>1.227259269</t>
   </si>
   <si>
@@ -1138,75 +1000,6 @@
     <t>1.227264335</t>
   </si>
   <si>
-    <t>1.227289714</t>
-  </si>
-  <si>
-    <t>1.227444727</t>
-  </si>
-  <si>
-    <t>1.227384777</t>
-  </si>
-  <si>
-    <t>1.227218143</t>
-  </si>
-  <si>
-    <t>1.227244559</t>
-  </si>
-  <si>
-    <t>1.226955748</t>
-  </si>
-  <si>
-    <t>1.227187660</t>
-  </si>
-  <si>
-    <t>1.227187300</t>
-  </si>
-  <si>
-    <t>1.227289614</t>
-  </si>
-  <si>
-    <t>1.227187480</t>
-  </si>
-  <si>
-    <t>1.227187570</t>
-  </si>
-  <si>
-    <t>1.227187390</t>
-  </si>
-  <si>
-    <t>1.227242526</t>
-  </si>
-  <si>
-    <t>1.227187210</t>
-  </si>
-  <si>
-    <t>1.227240137</t>
-  </si>
-  <si>
-    <t>1.226329853</t>
-  </si>
-  <si>
-    <t>1.227188458</t>
-  </si>
-  <si>
-    <t>1.226954898</t>
-  </si>
-  <si>
-    <t>1.227250823</t>
-  </si>
-  <si>
-    <t>1.227350171</t>
-  </si>
-  <si>
-    <t>1.227424739</t>
-  </si>
-  <si>
-    <t>1.227470151</t>
-  </si>
-  <si>
-    <t>1.227252900</t>
-  </si>
-  <si>
     <t>1.227259314</t>
   </si>
   <si>
@@ -1219,75 +1012,6 @@
     <t>1.227264380</t>
   </si>
   <si>
-    <t>1.227289753</t>
-  </si>
-  <si>
-    <t>1.227444766</t>
-  </si>
-  <si>
-    <t>1.227384816</t>
-  </si>
-  <si>
-    <t>1.227218182</t>
-  </si>
-  <si>
-    <t>1.227244598</t>
-  </si>
-  <si>
-    <t>1.226955763</t>
-  </si>
-  <si>
-    <t>1.227187699</t>
-  </si>
-  <si>
-    <t>1.227187339</t>
-  </si>
-  <si>
-    <t>1.227289653</t>
-  </si>
-  <si>
-    <t>1.227187519</t>
-  </si>
-  <si>
-    <t>1.227187609</t>
-  </si>
-  <si>
-    <t>1.227187429</t>
-  </si>
-  <si>
-    <t>1.227242515</t>
-  </si>
-  <si>
-    <t>1.227187249</t>
-  </si>
-  <si>
-    <t>1.227240176</t>
-  </si>
-  <si>
-    <t>1.226329898</t>
-  </si>
-  <si>
-    <t>1.227188447</t>
-  </si>
-  <si>
-    <t>1.226954913</t>
-  </si>
-  <si>
-    <t>1.227250812</t>
-  </si>
-  <si>
-    <t>1.227350210</t>
-  </si>
-  <si>
-    <t>1.227424778</t>
-  </si>
-  <si>
-    <t>1.227470190</t>
-  </si>
-  <si>
-    <t>1.227252939</t>
-  </si>
-  <si>
     <t>1.227259353</t>
   </si>
   <si>
@@ -1298,75 +1022,6 @@
   </si>
   <si>
     <t>1.227264419</t>
-  </si>
-  <si>
-    <t>1.227289678</t>
-  </si>
-  <si>
-    <t>1.227444690</t>
-  </si>
-  <si>
-    <t>1.227384741</t>
-  </si>
-  <si>
-    <t>1.227218107</t>
-  </si>
-  <si>
-    <t>1.227244523</t>
-  </si>
-  <si>
-    <t>1.226955773</t>
-  </si>
-  <si>
-    <t>1.227187624</t>
-  </si>
-  <si>
-    <t>1.227187264</t>
-  </si>
-  <si>
-    <t>1.227289578</t>
-  </si>
-  <si>
-    <t>1.227187444</t>
-  </si>
-  <si>
-    <t>1.227187534</t>
-  </si>
-  <si>
-    <t>1.227187354</t>
-  </si>
-  <si>
-    <t>1.227242525</t>
-  </si>
-  <si>
-    <t>1.227187174</t>
-  </si>
-  <si>
-    <t>1.227240101</t>
-  </si>
-  <si>
-    <t>1.226329902</t>
-  </si>
-  <si>
-    <t>1.227188457</t>
-  </si>
-  <si>
-    <t>1.226954923</t>
-  </si>
-  <si>
-    <t>1.227250822</t>
-  </si>
-  <si>
-    <t>1.227350135</t>
-  </si>
-  <si>
-    <t>1.227424703</t>
-  </si>
-  <si>
-    <t>1.227470115</t>
-  </si>
-  <si>
-    <t>1.227252864</t>
   </si>
   <si>
     <t>1.227259278</t>
@@ -14128,8 +13783,8 @@
       <c r="BE63">
         <v>1000</v>
       </c>
-      <c r="BF63" t="s">
-        <v>320</v>
+      <c r="BF63">
+        <v>33173986</v>
       </c>
       <c r="BG63">
         <v>364470</v>
@@ -14140,17 +13795,17 @@
       <c r="BI63">
         <v>58805</v>
       </c>
-      <c r="BJ63" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK63" t="s">
-        <v>374</v>
-      </c>
-      <c r="BL63" t="s">
-        <v>401</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>428</v>
+      <c r="BJ63">
+        <v>1.227289669</v>
+      </c>
+      <c r="BK63">
+        <v>1.227289714</v>
+      </c>
+      <c r="BL63">
+        <v>1.227289753</v>
+      </c>
+      <c r="BM63">
+        <v>1.227289678</v>
       </c>
     </row>
     <row r="64" spans="1:65">
@@ -14325,8 +13980,8 @@
       <c r="BE64">
         <v>1000</v>
       </c>
-      <c r="BF64" t="s">
-        <v>321</v>
+      <c r="BF64">
+        <v>33183385</v>
       </c>
       <c r="BG64">
         <v>15304043</v>
@@ -14337,17 +13992,17 @@
       <c r="BI64">
         <v>58805</v>
       </c>
-      <c r="BJ64" t="s">
-        <v>348</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>375</v>
-      </c>
-      <c r="BL64" t="s">
-        <v>402</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>429</v>
+      <c r="BJ64">
+        <v>1.227444681</v>
+      </c>
+      <c r="BK64">
+        <v>1.227444727</v>
+      </c>
+      <c r="BL64">
+        <v>1.227444766</v>
+      </c>
+      <c r="BM64">
+        <v>1.22744469</v>
       </c>
     </row>
     <row r="65" spans="1:65">
@@ -14522,8 +14177,8 @@
       <c r="BE65">
         <v>1000</v>
       </c>
-      <c r="BF65" t="s">
-        <v>322</v>
+      <c r="BF65">
+        <v>33179196</v>
       </c>
       <c r="BG65">
         <v>339727</v>
@@ -14534,17 +14189,17 @@
       <c r="BI65">
         <v>58805</v>
       </c>
-      <c r="BJ65" t="s">
-        <v>349</v>
-      </c>
-      <c r="BK65" t="s">
-        <v>376</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>403</v>
-      </c>
-      <c r="BM65" t="s">
-        <v>430</v>
+      <c r="BJ65">
+        <v>1.227384732</v>
+      </c>
+      <c r="BK65">
+        <v>1.227384777</v>
+      </c>
+      <c r="BL65">
+        <v>1.227384816</v>
+      </c>
+      <c r="BM65">
+        <v>1.227384741</v>
       </c>
     </row>
     <row r="66" spans="1:65">
@@ -14719,8 +14374,8 @@
       <c r="BE66">
         <v>1000</v>
       </c>
-      <c r="BF66" t="s">
-        <v>323</v>
+      <c r="BF66">
+        <v>33170686</v>
       </c>
       <c r="BG66">
         <v>46283</v>
@@ -14731,17 +14386,17 @@
       <c r="BI66">
         <v>58805</v>
       </c>
-      <c r="BJ66" t="s">
-        <v>350</v>
-      </c>
-      <c r="BK66" t="s">
-        <v>377</v>
-      </c>
-      <c r="BL66" t="s">
-        <v>404</v>
-      </c>
-      <c r="BM66" t="s">
-        <v>431</v>
+      <c r="BJ66">
+        <v>1.227218098</v>
+      </c>
+      <c r="BK66">
+        <v>1.227218143</v>
+      </c>
+      <c r="BL66">
+        <v>1.227218182</v>
+      </c>
+      <c r="BM66">
+        <v>1.227218107</v>
       </c>
     </row>
     <row r="67" spans="1:65">
@@ -14916,8 +14571,8 @@
       <c r="BE67">
         <v>1000</v>
       </c>
-      <c r="BF67" t="s">
-        <v>324</v>
+      <c r="BF67">
+        <v>33171818</v>
       </c>
       <c r="BG67">
         <v>539982</v>
@@ -14928,17 +14583,17 @@
       <c r="BI67">
         <v>58805</v>
       </c>
-      <c r="BJ67" t="s">
-        <v>351</v>
-      </c>
-      <c r="BK67" t="s">
-        <v>378</v>
-      </c>
-      <c r="BL67" t="s">
-        <v>405</v>
-      </c>
-      <c r="BM67" t="s">
-        <v>432</v>
+      <c r="BJ67">
+        <v>1.227244514</v>
+      </c>
+      <c r="BK67">
+        <v>1.227244559</v>
+      </c>
+      <c r="BL67">
+        <v>1.227244598</v>
+      </c>
+      <c r="BM67">
+        <v>1.227244523</v>
       </c>
     </row>
     <row r="68" spans="1:65">
@@ -15113,8 +14768,8 @@
       <c r="BE68">
         <v>1000</v>
       </c>
-      <c r="BF68" t="s">
-        <v>325</v>
+      <c r="BF68">
+        <v>33155647</v>
       </c>
       <c r="BG68">
         <v>56966</v>
@@ -15125,17 +14780,17 @@
       <c r="BI68">
         <v>58805</v>
       </c>
-      <c r="BJ68" t="s">
-        <v>352</v>
-      </c>
-      <c r="BK68" t="s">
-        <v>379</v>
-      </c>
-      <c r="BL68" t="s">
-        <v>406</v>
-      </c>
-      <c r="BM68" t="s">
-        <v>433</v>
+      <c r="BJ68">
+        <v>1.226955764</v>
+      </c>
+      <c r="BK68">
+        <v>1.226955748</v>
+      </c>
+      <c r="BL68">
+        <v>1.226955763</v>
+      </c>
+      <c r="BM68">
+        <v>1.226955773</v>
       </c>
     </row>
     <row r="69" spans="1:65">
@@ -15310,8 +14965,8 @@
       <c r="BE69">
         <v>1000</v>
       </c>
-      <c r="BF69" t="s">
-        <v>326</v>
+      <c r="BF69">
+        <v>33169537</v>
       </c>
       <c r="BG69">
         <v>184329</v>
@@ -15322,17 +14977,17 @@
       <c r="BI69">
         <v>58805</v>
       </c>
-      <c r="BJ69" t="s">
-        <v>353</v>
-      </c>
-      <c r="BK69" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL69" t="s">
-        <v>407</v>
-      </c>
-      <c r="BM69" t="s">
-        <v>434</v>
+      <c r="BJ69">
+        <v>1.227187615</v>
+      </c>
+      <c r="BK69">
+        <v>1.22718766</v>
+      </c>
+      <c r="BL69">
+        <v>1.227187699</v>
+      </c>
+      <c r="BM69">
+        <v>1.227187624</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -15507,8 +15162,8 @@
       <c r="BE70">
         <v>1000</v>
       </c>
-      <c r="BF70" t="s">
-        <v>327</v>
+      <c r="BF70">
+        <v>33169545</v>
       </c>
       <c r="BG70">
         <v>46928</v>
@@ -15519,17 +15174,17 @@
       <c r="BI70">
         <v>58805</v>
       </c>
-      <c r="BJ70" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK70" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL70" t="s">
-        <v>408</v>
-      </c>
-      <c r="BM70" t="s">
-        <v>435</v>
+      <c r="BJ70">
+        <v>1.227187255</v>
+      </c>
+      <c r="BK70">
+        <v>1.2271873</v>
+      </c>
+      <c r="BL70">
+        <v>1.227187339</v>
+      </c>
+      <c r="BM70">
+        <v>1.227187264</v>
       </c>
     </row>
     <row r="71" spans="1:65">
@@ -15704,8 +15359,8 @@
       <c r="BE71">
         <v>1000</v>
       </c>
-      <c r="BF71" t="s">
-        <v>328</v>
+      <c r="BF71">
+        <v>33173988</v>
       </c>
       <c r="BG71">
         <v>184328</v>
@@ -15716,17 +15371,17 @@
       <c r="BI71">
         <v>58805</v>
       </c>
-      <c r="BJ71" t="s">
-        <v>355</v>
-      </c>
-      <c r="BK71" t="s">
-        <v>382</v>
-      </c>
-      <c r="BL71" t="s">
-        <v>409</v>
-      </c>
-      <c r="BM71" t="s">
-        <v>436</v>
+      <c r="BJ71">
+        <v>1.227289569</v>
+      </c>
+      <c r="BK71">
+        <v>1.227289614</v>
+      </c>
+      <c r="BL71">
+        <v>1.227289653</v>
+      </c>
+      <c r="BM71">
+        <v>1.227289578</v>
       </c>
     </row>
     <row r="72" spans="1:65">
@@ -15901,8 +15556,8 @@
       <c r="BE72">
         <v>1000</v>
       </c>
-      <c r="BF72" t="s">
-        <v>329</v>
+      <c r="BF72">
+        <v>33169542</v>
       </c>
       <c r="BG72">
         <v>392220</v>
@@ -15913,17 +15568,17 @@
       <c r="BI72">
         <v>58805</v>
       </c>
-      <c r="BJ72" t="s">
-        <v>356</v>
-      </c>
-      <c r="BK72" t="s">
-        <v>383</v>
-      </c>
-      <c r="BL72" t="s">
-        <v>410</v>
-      </c>
-      <c r="BM72" t="s">
-        <v>437</v>
+      <c r="BJ72">
+        <v>1.227187435</v>
+      </c>
+      <c r="BK72">
+        <v>1.22718748</v>
+      </c>
+      <c r="BL72">
+        <v>1.227187519</v>
+      </c>
+      <c r="BM72">
+        <v>1.227187444</v>
       </c>
     </row>
     <row r="73" spans="1:65">
@@ -16098,8 +15753,8 @@
       <c r="BE73">
         <v>1000</v>
       </c>
-      <c r="BF73" t="s">
-        <v>330</v>
+      <c r="BF73">
+        <v>33169539</v>
       </c>
       <c r="BG73">
         <v>4064631</v>
@@ -16110,17 +15765,17 @@
       <c r="BI73">
         <v>58805</v>
       </c>
-      <c r="BJ73" t="s">
-        <v>357</v>
-      </c>
-      <c r="BK73" t="s">
-        <v>384</v>
-      </c>
-      <c r="BL73" t="s">
-        <v>411</v>
-      </c>
-      <c r="BM73" t="s">
-        <v>438</v>
+      <c r="BJ73">
+        <v>1.227187525</v>
+      </c>
+      <c r="BK73">
+        <v>1.22718757</v>
+      </c>
+      <c r="BL73">
+        <v>1.227187609</v>
+      </c>
+      <c r="BM73">
+        <v>1.227187534</v>
       </c>
     </row>
     <row r="74" spans="1:65">
@@ -16295,8 +15950,8 @@
       <c r="BE74">
         <v>1000</v>
       </c>
-      <c r="BF74" t="s">
-        <v>331</v>
+      <c r="BF74">
+        <v>33169544</v>
       </c>
       <c r="BG74">
         <v>38594512</v>
@@ -16307,17 +15962,17 @@
       <c r="BI74">
         <v>58805</v>
       </c>
-      <c r="BJ74" t="s">
-        <v>358</v>
-      </c>
-      <c r="BK74" t="s">
-        <v>385</v>
-      </c>
-      <c r="BL74" t="s">
-        <v>412</v>
-      </c>
-      <c r="BM74" t="s">
-        <v>439</v>
+      <c r="BJ74">
+        <v>1.227187345</v>
+      </c>
+      <c r="BK74">
+        <v>1.22718739</v>
+      </c>
+      <c r="BL74">
+        <v>1.227187429</v>
+      </c>
+      <c r="BM74">
+        <v>1.227187354</v>
       </c>
     </row>
     <row r="75" spans="1:65">
@@ -16492,8 +16147,8 @@
       <c r="BE75">
         <v>980</v>
       </c>
-      <c r="BF75" t="s">
-        <v>332</v>
+      <c r="BF75">
+        <v>33171758</v>
       </c>
       <c r="BG75">
         <v>189832</v>
@@ -16504,17 +16159,17 @@
       <c r="BI75">
         <v>58805</v>
       </c>
-      <c r="BJ75" t="s">
-        <v>359</v>
-      </c>
-      <c r="BK75" t="s">
-        <v>386</v>
-      </c>
-      <c r="BL75" t="s">
-        <v>413</v>
-      </c>
-      <c r="BM75" t="s">
-        <v>440</v>
+      <c r="BJ75">
+        <v>1.227242516</v>
+      </c>
+      <c r="BK75">
+        <v>1.227242526</v>
+      </c>
+      <c r="BL75">
+        <v>1.227242515</v>
+      </c>
+      <c r="BM75">
+        <v>1.227242525</v>
       </c>
     </row>
     <row r="76" spans="1:65">
@@ -16689,8 +16344,8 @@
       <c r="BE76">
         <v>1000</v>
       </c>
-      <c r="BF76" t="s">
-        <v>333</v>
+      <c r="BF76">
+        <v>33169546</v>
       </c>
       <c r="BG76">
         <v>198746</v>
@@ -16701,17 +16356,17 @@
       <c r="BI76">
         <v>58805</v>
       </c>
-      <c r="BJ76" t="s">
-        <v>360</v>
-      </c>
-      <c r="BK76" t="s">
-        <v>387</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>414</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>441</v>
+      <c r="BJ76">
+        <v>1.227187165</v>
+      </c>
+      <c r="BK76">
+        <v>1.22718721</v>
+      </c>
+      <c r="BL76">
+        <v>1.227187249</v>
+      </c>
+      <c r="BM76">
+        <v>1.227187174</v>
       </c>
     </row>
     <row r="77" spans="1:65">
@@ -16886,8 +16541,8 @@
       <c r="BE77">
         <v>1000</v>
       </c>
-      <c r="BF77" t="s">
-        <v>334</v>
+      <c r="BF77">
+        <v>33171686</v>
       </c>
       <c r="BG77">
         <v>184325</v>
@@ -16898,17 +16553,17 @@
       <c r="BI77">
         <v>58805</v>
       </c>
-      <c r="BJ77" t="s">
-        <v>361</v>
-      </c>
-      <c r="BK77" t="s">
-        <v>388</v>
-      </c>
-      <c r="BL77" t="s">
-        <v>415</v>
-      </c>
-      <c r="BM77" t="s">
-        <v>442</v>
+      <c r="BJ77">
+        <v>1.227240092</v>
+      </c>
+      <c r="BK77">
+        <v>1.227240137</v>
+      </c>
+      <c r="BL77">
+        <v>1.227240176</v>
+      </c>
+      <c r="BM77">
+        <v>1.227240101</v>
       </c>
     </row>
     <row r="78" spans="1:65">
@@ -17083,8 +16738,8 @@
       <c r="BE78">
         <v>750</v>
       </c>
-      <c r="BF78" t="s">
-        <v>335</v>
+      <c r="BF78">
+        <v>33118750</v>
       </c>
       <c r="BG78">
         <v>44507</v>
@@ -17095,17 +16750,17 @@
       <c r="BI78">
         <v>58805</v>
       </c>
-      <c r="BJ78" t="s">
-        <v>362</v>
-      </c>
-      <c r="BK78" t="s">
-        <v>389</v>
-      </c>
-      <c r="BL78" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>443</v>
+      <c r="BJ78">
+        <v>1.22632985</v>
+      </c>
+      <c r="BK78">
+        <v>1.226329853</v>
+      </c>
+      <c r="BL78">
+        <v>1.226329898</v>
+      </c>
+      <c r="BM78">
+        <v>1.226329902</v>
       </c>
     </row>
     <row r="79" spans="1:65">
@@ -17280,8 +16935,8 @@
       <c r="BE79">
         <v>730</v>
       </c>
-      <c r="BF79" t="s">
-        <v>336</v>
+      <c r="BF79">
+        <v>33169541</v>
       </c>
       <c r="BG79">
         <v>148733</v>
@@ -17292,17 +16947,17 @@
       <c r="BI79">
         <v>58805</v>
       </c>
-      <c r="BJ79" t="s">
-        <v>363</v>
-      </c>
-      <c r="BK79" t="s">
-        <v>390</v>
-      </c>
-      <c r="BL79" t="s">
-        <v>417</v>
-      </c>
-      <c r="BM79" t="s">
-        <v>444</v>
+      <c r="BJ79">
+        <v>1.227188448</v>
+      </c>
+      <c r="BK79">
+        <v>1.227188458</v>
+      </c>
+      <c r="BL79">
+        <v>1.227188447</v>
+      </c>
+      <c r="BM79">
+        <v>1.227188457</v>
       </c>
     </row>
     <row r="80" spans="1:65">
@@ -17477,8 +17132,8 @@
       <c r="BE80">
         <v>1000</v>
       </c>
-      <c r="BF80" t="s">
-        <v>337</v>
+      <c r="BF80">
+        <v>33155649</v>
       </c>
       <c r="BG80">
         <v>44795</v>
@@ -17489,17 +17144,17 @@
       <c r="BI80">
         <v>58805</v>
       </c>
-      <c r="BJ80" t="s">
-        <v>364</v>
-      </c>
-      <c r="BK80" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL80" t="s">
-        <v>418</v>
-      </c>
-      <c r="BM80" t="s">
-        <v>445</v>
+      <c r="BJ80">
+        <v>1.226954914</v>
+      </c>
+      <c r="BK80">
+        <v>1.226954898</v>
+      </c>
+      <c r="BL80">
+        <v>1.226954913</v>
+      </c>
+      <c r="BM80">
+        <v>1.226954923</v>
       </c>
     </row>
     <row r="81" spans="1:65">
@@ -17674,8 +17329,8 @@
       <c r="BE81">
         <v>1000</v>
       </c>
-      <c r="BF81" t="s">
-        <v>338</v>
+      <c r="BF81">
+        <v>33172063</v>
       </c>
       <c r="BG81">
         <v>48784</v>
@@ -17686,17 +17341,17 @@
       <c r="BI81">
         <v>58805</v>
       </c>
-      <c r="BJ81" t="s">
-        <v>365</v>
-      </c>
-      <c r="BK81" t="s">
-        <v>392</v>
-      </c>
-      <c r="BL81" t="s">
-        <v>419</v>
-      </c>
-      <c r="BM81" t="s">
-        <v>446</v>
+      <c r="BJ81">
+        <v>1.227250813</v>
+      </c>
+      <c r="BK81">
+        <v>1.227250823</v>
+      </c>
+      <c r="BL81">
+        <v>1.227250812</v>
+      </c>
+      <c r="BM81">
+        <v>1.227250822</v>
       </c>
     </row>
     <row r="82" spans="1:65">
@@ -17871,8 +17526,8 @@
       <c r="BE82">
         <v>1000</v>
       </c>
-      <c r="BF82" t="s">
-        <v>339</v>
+      <c r="BF82">
+        <v>33177119</v>
       </c>
       <c r="BG82">
         <v>4972227</v>
@@ -17883,17 +17538,17 @@
       <c r="BI82">
         <v>58805</v>
       </c>
-      <c r="BJ82" t="s">
-        <v>366</v>
-      </c>
-      <c r="BK82" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL82" t="s">
-        <v>420</v>
-      </c>
-      <c r="BM82" t="s">
-        <v>447</v>
+      <c r="BJ82">
+        <v>1.227350126</v>
+      </c>
+      <c r="BK82">
+        <v>1.227350171</v>
+      </c>
+      <c r="BL82">
+        <v>1.22735021</v>
+      </c>
+      <c r="BM82">
+        <v>1.227350135</v>
       </c>
     </row>
     <row r="83" spans="1:65">
@@ -18068,8 +17723,8 @@
       <c r="BE83">
         <v>1000</v>
       </c>
-      <c r="BF83" t="s">
-        <v>340</v>
+      <c r="BF83">
+        <v>33181831</v>
       </c>
       <c r="BG83">
         <v>489163</v>
@@ -18080,17 +17735,17 @@
       <c r="BI83">
         <v>58805</v>
       </c>
-      <c r="BJ83" t="s">
-        <v>367</v>
-      </c>
-      <c r="BK83" t="s">
-        <v>394</v>
-      </c>
-      <c r="BL83" t="s">
-        <v>421</v>
-      </c>
-      <c r="BM83" t="s">
-        <v>448</v>
+      <c r="BJ83">
+        <v>1.227424694</v>
+      </c>
+      <c r="BK83">
+        <v>1.227424739</v>
+      </c>
+      <c r="BL83">
+        <v>1.227424778</v>
+      </c>
+      <c r="BM83">
+        <v>1.227424703</v>
       </c>
     </row>
     <row r="84" spans="1:65">
@@ -18265,8 +17920,8 @@
       <c r="BE84">
         <v>1000</v>
       </c>
-      <c r="BF84" t="s">
-        <v>341</v>
+      <c r="BF84">
+        <v>33185054</v>
       </c>
       <c r="BG84">
         <v>224547</v>
@@ -18277,17 +17932,17 @@
       <c r="BI84">
         <v>58805</v>
       </c>
-      <c r="BJ84" t="s">
-        <v>368</v>
-      </c>
-      <c r="BK84" t="s">
-        <v>395</v>
-      </c>
-      <c r="BL84" t="s">
-        <v>422</v>
-      </c>
-      <c r="BM84" t="s">
-        <v>449</v>
+      <c r="BJ84">
+        <v>1.227470106</v>
+      </c>
+      <c r="BK84">
+        <v>1.227470151</v>
+      </c>
+      <c r="BL84">
+        <v>1.22747019</v>
+      </c>
+      <c r="BM84">
+        <v>1.227470115</v>
       </c>
     </row>
     <row r="85" spans="1:65">
@@ -18462,8 +18117,8 @@
       <c r="BE85">
         <v>1000</v>
       </c>
-      <c r="BF85" t="s">
-        <v>342</v>
+      <c r="BF85">
+        <v>33172288</v>
       </c>
       <c r="BG85">
         <v>2277370</v>
@@ -18474,17 +18129,17 @@
       <c r="BI85">
         <v>58805</v>
       </c>
-      <c r="BJ85" t="s">
-        <v>369</v>
-      </c>
-      <c r="BK85" t="s">
-        <v>396</v>
-      </c>
-      <c r="BL85" t="s">
-        <v>423</v>
-      </c>
-      <c r="BM85" t="s">
-        <v>450</v>
+      <c r="BJ85">
+        <v>1.227252855</v>
+      </c>
+      <c r="BK85">
+        <v>1.2272529</v>
+      </c>
+      <c r="BL85">
+        <v>1.227252939</v>
+      </c>
+      <c r="BM85">
+        <v>1.227252864</v>
       </c>
     </row>
     <row r="86" spans="1:65">
@@ -18504,82 +18159,82 @@
         <v>316</v>
       </c>
       <c r="F86">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="G86">
+        <v>3.05</v>
+      </c>
+      <c r="H86">
+        <v>2.64</v>
+      </c>
+      <c r="I86">
+        <v>2.88</v>
+      </c>
+      <c r="J86">
         <v>3.25</v>
       </c>
-      <c r="H86">
-        <v>2.5</v>
-      </c>
-      <c r="I86">
-        <v>2.78</v>
-      </c>
-      <c r="J86">
-        <v>3.2</v>
-      </c>
       <c r="K86">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L86">
         <v>1.76</v>
       </c>
       <c r="M86">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="N86">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="O86">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P86">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q86">
+        <v>2.02</v>
+      </c>
+      <c r="R86">
         <v>1.99</v>
       </c>
-      <c r="R86">
-        <v>2</v>
-      </c>
       <c r="S86">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T86">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="U86">
         <v>14.5</v>
       </c>
       <c r="V86">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="W86">
         <v>12.5</v>
       </c>
       <c r="X86">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y86">
         <v>19.5</v>
       </c>
       <c r="Z86">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AA86">
         <v>980</v>
       </c>
       <c r="AB86">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC86">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD86">
         <v>6.8</v>
       </c>
       <c r="AE86">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF86">
         <v>10.5</v>
@@ -18588,79 +18243,79 @@
         <v>15</v>
       </c>
       <c r="AH86">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="AI86">
         <v>36</v>
       </c>
       <c r="AJ86">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AK86">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL86">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM86">
+        <v>16</v>
+      </c>
+      <c r="AN86">
         <v>16.5</v>
-      </c>
-      <c r="AN86">
-        <v>3.95</v>
       </c>
       <c r="AO86">
         <v>23</v>
       </c>
       <c r="AP86">
+        <v>4.4</v>
+      </c>
+      <c r="AQ86">
+        <v>980</v>
+      </c>
+      <c r="AR86">
+        <v>4.3</v>
+      </c>
+      <c r="AS86">
+        <v>980</v>
+      </c>
+      <c r="AT86">
+        <v>4.2</v>
+      </c>
+      <c r="AU86">
+        <v>42</v>
+      </c>
+      <c r="AV86">
+        <v>4.4</v>
+      </c>
+      <c r="AW86">
+        <v>980</v>
+      </c>
+      <c r="AX86">
+        <v>4.5</v>
+      </c>
+      <c r="AY86">
+        <v>980</v>
+      </c>
+      <c r="AZ86">
+        <v>4.2</v>
+      </c>
+      <c r="BA86">
+        <v>38</v>
+      </c>
+      <c r="BB86">
         <v>4.1</v>
-      </c>
-      <c r="AQ86">
-        <v>980</v>
-      </c>
-      <c r="AR86">
-        <v>4.1</v>
-      </c>
-      <c r="AS86">
-        <v>980</v>
-      </c>
-      <c r="AT86">
-        <v>4</v>
-      </c>
-      <c r="AU86">
-        <v>980</v>
-      </c>
-      <c r="AV86">
-        <v>4.1</v>
-      </c>
-      <c r="AW86">
-        <v>980</v>
-      </c>
-      <c r="AX86">
-        <v>4.3</v>
-      </c>
-      <c r="AY86">
-        <v>980</v>
-      </c>
-      <c r="AZ86">
-        <v>3.95</v>
-      </c>
-      <c r="BA86">
-        <v>980</v>
-      </c>
-      <c r="BB86">
-        <v>3.85</v>
       </c>
       <c r="BC86">
         <v>32</v>
       </c>
       <c r="BD86">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BE86">
         <v>1000</v>
       </c>
       <c r="BF86" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="BG86">
         <v>1067928</v>
@@ -18672,16 +18327,16 @@
         <v>58805</v>
       </c>
       <c r="BJ86" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="BK86" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="BL86" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="BM86" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:65">
@@ -18701,46 +18356,46 @@
         <v>317</v>
       </c>
       <c r="F87">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="G87">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H87">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="I87">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="J87">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K87">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L87">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="M87">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="N87">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="O87">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="P87">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q87">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R87">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T87">
         <v>10</v>
@@ -18749,22 +18404,22 @@
         <v>980</v>
       </c>
       <c r="V87">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W87">
         <v>980</v>
       </c>
       <c r="X87">
-        <v>3.35</v>
+        <v>14</v>
       </c>
       <c r="Y87">
         <v>980</v>
       </c>
       <c r="Z87">
-        <v>3.15</v>
+        <v>7.4</v>
       </c>
       <c r="AA87">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB87">
         <v>9.6</v>
@@ -18779,13 +18434,13 @@
         <v>980</v>
       </c>
       <c r="AF87">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="AG87">
         <v>980</v>
       </c>
       <c r="AH87">
-        <v>3.7</v>
+        <v>23</v>
       </c>
       <c r="AI87">
         <v>980</v>
@@ -18809,25 +18464,25 @@
         <v>980</v>
       </c>
       <c r="AP87">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AQ87">
         <v>980</v>
       </c>
       <c r="AR87">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AS87">
         <v>980</v>
       </c>
       <c r="AT87">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU87">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AV87">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="AW87">
         <v>980</v>
@@ -18836,28 +18491,28 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ87">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="BA87">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="BB87">
-        <v>3.65</v>
+        <v>2.62</v>
       </c>
       <c r="BC87">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="BD87">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="BE87">
         <v>1000</v>
       </c>
       <c r="BF87" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="BG87">
         <v>56264858</v>
@@ -18869,16 +18524,16 @@
         <v>58805</v>
       </c>
       <c r="BJ87" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="BK87" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="BL87" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="BM87" t="s">
-        <v>452</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:65">
@@ -18898,163 +18553,163 @@
         <v>318</v>
       </c>
       <c r="F88">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="G88">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="H88">
+        <v>3.7</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>3.75</v>
+      </c>
+      <c r="K88">
         <v>3.95</v>
       </c>
-      <c r="I88">
-        <v>4.2</v>
-      </c>
-      <c r="J88">
-        <v>3.85</v>
-      </c>
-      <c r="K88">
-        <v>4.2</v>
-      </c>
       <c r="L88">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="M88">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="N88">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="O88">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="P88">
         <v>1.7</v>
       </c>
       <c r="Q88">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R88">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S88">
         <v>2.44</v>
       </c>
       <c r="T88">
+        <v>14</v>
+      </c>
+      <c r="U88">
+        <v>16.5</v>
+      </c>
+      <c r="V88">
+        <v>14</v>
+      </c>
+      <c r="W88">
+        <v>16.5</v>
+      </c>
+      <c r="X88">
+        <v>25</v>
+      </c>
+      <c r="Y88">
+        <v>980</v>
+      </c>
+      <c r="Z88">
+        <v>11.5</v>
+      </c>
+      <c r="AA88">
+        <v>980</v>
+      </c>
+      <c r="AB88">
+        <v>10</v>
+      </c>
+      <c r="AC88">
+        <v>980</v>
+      </c>
+      <c r="AD88">
+        <v>7.8</v>
+      </c>
+      <c r="AE88">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF88">
+        <v>13.5</v>
+      </c>
+      <c r="AG88">
+        <v>15.5</v>
+      </c>
+      <c r="AH88">
+        <v>30</v>
+      </c>
+      <c r="AI88">
+        <v>44</v>
+      </c>
+      <c r="AJ88">
         <v>12</v>
       </c>
-      <c r="U88">
-        <v>980</v>
-      </c>
-      <c r="V88">
-        <v>11</v>
-      </c>
-      <c r="W88">
-        <v>980</v>
-      </c>
-      <c r="X88">
-        <v>19</v>
-      </c>
-      <c r="Y88">
-        <v>980</v>
-      </c>
-      <c r="Z88">
-        <v>5.7</v>
-      </c>
-      <c r="AA88">
-        <v>980</v>
-      </c>
-      <c r="AB88">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC88">
-        <v>11.5</v>
-      </c>
-      <c r="AD88">
-        <v>8</v>
-      </c>
-      <c r="AE88">
-        <v>9</v>
-      </c>
-      <c r="AF88">
-        <v>13</v>
-      </c>
-      <c r="AG88">
-        <v>18</v>
-      </c>
-      <c r="AH88">
-        <v>5.6</v>
-      </c>
-      <c r="AI88">
-        <v>46</v>
-      </c>
-      <c r="AJ88">
-        <v>10</v>
-      </c>
       <c r="AK88">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL88">
         <v>9.6</v>
       </c>
       <c r="AM88">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AN88">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO88">
+        <v>17.5</v>
+      </c>
+      <c r="AP88">
+        <v>34</v>
+      </c>
+      <c r="AQ88">
+        <v>50</v>
+      </c>
+      <c r="AR88">
+        <v>22</v>
+      </c>
+      <c r="AS88">
+        <v>26</v>
+      </c>
+      <c r="AT88">
+        <v>18</v>
+      </c>
+      <c r="AU88">
         <v>21</v>
       </c>
-      <c r="AP88">
-        <v>5.5</v>
-      </c>
-      <c r="AQ88">
-        <v>980</v>
-      </c>
-      <c r="AR88">
-        <v>19</v>
-      </c>
-      <c r="AS88">
+      <c r="AV88">
         <v>28</v>
       </c>
-      <c r="AT88">
-        <v>15.5</v>
-      </c>
-      <c r="AU88">
-        <v>24</v>
-      </c>
-      <c r="AV88">
-        <v>5.6</v>
-      </c>
       <c r="AW88">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AX88">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY88">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AZ88">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="BA88">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="BB88">
-        <v>5.2</v>
+        <v>26</v>
       </c>
       <c r="BC88">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD88">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="BE88">
         <v>1000</v>
       </c>
       <c r="BF88" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="BG88">
         <v>328926</v>
@@ -19066,16 +18721,16 @@
         <v>58805</v>
       </c>
       <c r="BJ88" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="BK88" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="BL88" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="BM88" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:65">
@@ -19095,19 +18750,19 @@
         <v>319</v>
       </c>
       <c r="F89">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G89">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H89">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I89">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="J89">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K89">
         <v>3.45</v>
@@ -19116,16 +18771,16 @@
         <v>1.77</v>
       </c>
       <c r="M89">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="N89">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O89">
         <v>2.3</v>
       </c>
       <c r="P89">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q89">
         <v>1.99</v>
@@ -19134,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="S89">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T89">
         <v>10</v>
@@ -19143,115 +18798,115 @@
         <v>14.5</v>
       </c>
       <c r="V89">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="W89">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="X89">
-        <v>4.8</v>
+        <v>12.5</v>
       </c>
       <c r="Y89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z89">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AA89">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB89">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC89">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AD89">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE89">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AF89">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG89">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH89">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI89">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ89">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="AK89">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL89">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM89">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AN89">
-        <v>3.45</v>
+        <v>13.5</v>
       </c>
       <c r="AO89">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP89">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="AQ89">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AR89">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AS89">
         <v>980</v>
       </c>
       <c r="AT89">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU89">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AV89">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AW89">
         <v>980</v>
       </c>
       <c r="AX89">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AY89">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ89">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="BA89">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB89">
-        <v>2.04</v>
+        <v>3.9</v>
       </c>
       <c r="BC89">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="BD89">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="BE89">
         <v>1000</v>
       </c>
       <c r="BF89" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="BG89">
         <v>328690</v>
@@ -19263,16 +18918,16 @@
         <v>58805</v>
       </c>
       <c r="BJ89" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="BK89" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="BL89" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="BM89" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-12.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="320">
   <si>
     <t>League</t>
   </si>
@@ -974,66 +974,6 @@
   </si>
   <si>
     <t>America de Cali S.A</t>
-  </si>
-  <si>
-    <t>33172442</t>
-  </si>
-  <si>
-    <t>33181852</t>
-  </si>
-  <si>
-    <t>33155438</t>
-  </si>
-  <si>
-    <t>33172613</t>
-  </si>
-  <si>
-    <t>1.227259269</t>
-  </si>
-  <si>
-    <t>1.227424804</t>
-  </si>
-  <si>
-    <t>1.226946343</t>
-  </si>
-  <si>
-    <t>1.227264335</t>
-  </si>
-  <si>
-    <t>1.227259314</t>
-  </si>
-  <si>
-    <t>1.227424849</t>
-  </si>
-  <si>
-    <t>1.226946388</t>
-  </si>
-  <si>
-    <t>1.227264380</t>
-  </si>
-  <si>
-    <t>1.227259353</t>
-  </si>
-  <si>
-    <t>1.227424888</t>
-  </si>
-  <si>
-    <t>1.226946427</t>
-  </si>
-  <si>
-    <t>1.227264419</t>
-  </si>
-  <si>
-    <t>1.227259278</t>
-  </si>
-  <si>
-    <t>1.227424813</t>
-  </si>
-  <si>
-    <t>1.226946352</t>
-  </si>
-  <si>
-    <t>1.227264344</t>
   </si>
 </sst>
 </file>
@@ -18314,8 +18254,8 @@
       <c r="BE86">
         <v>1000</v>
       </c>
-      <c r="BF86" t="s">
-        <v>320</v>
+      <c r="BF86">
+        <v>33172442</v>
       </c>
       <c r="BG86">
         <v>1067928</v>
@@ -18326,17 +18266,17 @@
       <c r="BI86">
         <v>58805</v>
       </c>
-      <c r="BJ86" t="s">
-        <v>324</v>
-      </c>
-      <c r="BK86" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL86" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM86" t="s">
-        <v>336</v>
+      <c r="BJ86">
+        <v>1.227259269</v>
+      </c>
+      <c r="BK86">
+        <v>1.227259314</v>
+      </c>
+      <c r="BL86">
+        <v>1.227259353</v>
+      </c>
+      <c r="BM86">
+        <v>1.227259278</v>
       </c>
     </row>
     <row r="87" spans="1:65">
@@ -18511,8 +18451,8 @@
       <c r="BE87">
         <v>1000</v>
       </c>
-      <c r="BF87" t="s">
-        <v>321</v>
+      <c r="BF87">
+        <v>33181852</v>
       </c>
       <c r="BG87">
         <v>56264858</v>
@@ -18523,17 +18463,17 @@
       <c r="BI87">
         <v>58805</v>
       </c>
-      <c r="BJ87" t="s">
-        <v>325</v>
-      </c>
-      <c r="BK87" t="s">
-        <v>329</v>
-      </c>
-      <c r="BL87" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM87" t="s">
-        <v>337</v>
+      <c r="BJ87">
+        <v>1.227424804</v>
+      </c>
+      <c r="BK87">
+        <v>1.227424849</v>
+      </c>
+      <c r="BL87">
+        <v>1.227424888</v>
+      </c>
+      <c r="BM87">
+        <v>1.227424813</v>
       </c>
     </row>
     <row r="88" spans="1:65">
@@ -18708,8 +18648,8 @@
       <c r="BE88">
         <v>1000</v>
       </c>
-      <c r="BF88" t="s">
-        <v>322</v>
+      <c r="BF88">
+        <v>33155438</v>
       </c>
       <c r="BG88">
         <v>328926</v>
@@ -18720,17 +18660,17 @@
       <c r="BI88">
         <v>58805</v>
       </c>
-      <c r="BJ88" t="s">
-        <v>326</v>
-      </c>
-      <c r="BK88" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL88" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM88" t="s">
-        <v>338</v>
+      <c r="BJ88">
+        <v>1.226946343</v>
+      </c>
+      <c r="BK88">
+        <v>1.226946388</v>
+      </c>
+      <c r="BL88">
+        <v>1.226946427</v>
+      </c>
+      <c r="BM88">
+        <v>1.226946352</v>
       </c>
     </row>
     <row r="89" spans="1:65">
@@ -18905,8 +18845,8 @@
       <c r="BE89">
         <v>1000</v>
       </c>
-      <c r="BF89" t="s">
-        <v>323</v>
+      <c r="BF89">
+        <v>33172613</v>
       </c>
       <c r="BG89">
         <v>328690</v>
@@ -18917,17 +18857,17 @@
       <c r="BI89">
         <v>58805</v>
       </c>
-      <c r="BJ89" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK89" t="s">
-        <v>331</v>
-      </c>
-      <c r="BL89" t="s">
-        <v>335</v>
-      </c>
-      <c r="BM89" t="s">
-        <v>339</v>
+      <c r="BJ89">
+        <v>1.227264335</v>
+      </c>
+      <c r="BK89">
+        <v>1.22726438</v>
+      </c>
+      <c r="BL89">
+        <v>1.227264419</v>
+      </c>
+      <c r="BM89">
+        <v>1.227264344</v>
       </c>
     </row>
   </sheetData>
